--- a/teaching/traditional_assets/database/data/turkey/turkey_electronics_consumer_office.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_electronics_consumer_office.xlsx
@@ -644,10 +644,10 @@
         <v>0.2420641380433013</v>
       </c>
       <c r="X2">
-        <v>0.2313096401519242</v>
+        <v>0.2356191952930482</v>
       </c>
       <c r="Y2">
-        <v>0.01075449789137709</v>
+        <v>0.006444942750253119</v>
       </c>
       <c r="Z2">
         <v>1.593604951005673</v>
@@ -656,10 +656,10 @@
         <v>0.1963641052088706</v>
       </c>
       <c r="AB2">
-        <v>0.1382337878216627</v>
+        <v>0.1373524887914079</v>
       </c>
       <c r="AC2">
-        <v>0.05813031738720792</v>
+        <v>0.05901161641746272</v>
       </c>
       <c r="AD2">
         <v>1178.9</v>
@@ -772,10 +772,10 @@
         <v>0.2420641380433013</v>
       </c>
       <c r="X3">
-        <v>0.2313096401519242</v>
+        <v>0.2356191952930482</v>
       </c>
       <c r="Y3">
-        <v>0.01075449789137709</v>
+        <v>0.006444942750253119</v>
       </c>
       <c r="Z3">
         <v>1.593604951005673</v>
@@ -784,10 +784,10 @@
         <v>0.1963641052088706</v>
       </c>
       <c r="AB3">
-        <v>0.1382337878216627</v>
+        <v>0.1373524887914079</v>
       </c>
       <c r="AC3">
-        <v>0.05813031738720792</v>
+        <v>0.05901161641746272</v>
       </c>
       <c r="AD3">
         <v>1178.9</v>
@@ -1093,13 +1093,13 @@
         <v>951.3</v>
       </c>
       <c r="H2">
-        <v>585.990835947846</v>
+        <v>578.613075026287</v>
       </c>
       <c r="I2">
         <v>1748.5</v>
       </c>
       <c r="J2">
-        <v>2313.18883594785</v>
+        <v>2305.81107502629</v>
       </c>
       <c r="K2">
         <v>1178.9</v>
@@ -1108,16 +1108,16 @@
         <v>2108.898</v>
       </c>
       <c r="M2">
-        <v>0.138233787821663</v>
+        <v>0.137352488791408</v>
       </c>
       <c r="N2">
-        <v>0.108345612653564</v>
+        <v>0.106402394500913</v>
       </c>
       <c r="O2">
-        <v>0.0631272831802361</v>
+        <v>0.058057283180236</v>
       </c>
       <c r="P2">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -1126,14 +1126,14 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="S2">
-        <v>0.231309640151924</v>
+        <v>0.235619195293048</v>
       </c>
       <c r="T2">
-        <v>8.58745926535636</v>
+        <v>9.01089745009128</v>
       </c>
       <c r="U2">
         <v>2.25199065440083</v>
@@ -1142,7 +1142,7 @@
         <v>89.5704551531099</v>
       </c>
       <c r="W2">
-        <v>4.963423528255059</v>
+        <v>6.845290268825697</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1151,16 +1151,16 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0158</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="AA2">
         <v>951.3</v>
       </c>
       <c r="AB2">
-        <v>0.09569739542691996</v>
+        <v>0.10049739542692</v>
       </c>
       <c r="AC2">
-        <v>0.08093241433363596</v>
+        <v>0.07443241433363595</v>
       </c>
       <c r="AD2">
         <v>0.22</v>
@@ -1355,13 +1355,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1253839844714442</v>
+        <v>0.1243805094616631</v>
       </c>
       <c r="C2">
-        <v>2335.228875945935</v>
+        <v>2327.29250475307</v>
       </c>
       <c r="D2">
-        <v>1953.528875945935</v>
+        <v>1945.59250475307</v>
       </c>
       <c r="E2">
         <v>-1178.9</v>
@@ -1406,19 +1406,19 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1253839844714442</v>
+        <v>0.1243805094616631</v>
       </c>
       <c r="T2">
         <v>1.145109372962285</v>
       </c>
       <c r="U2">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V2">
         <v>0.22</v>
       </c>
       <c r="W2">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -1437,13 +1437,13 @@
         <v>0.01</v>
       </c>
       <c r="B3">
-        <v>0.125161959705607</v>
+        <v>0.1241606923408475</v>
       </c>
       <c r="C3">
-        <v>2317.89289660253</v>
+        <v>2309.713924262037</v>
       </c>
       <c r="D3">
-        <v>1957.49489660253</v>
+        <v>1949.315924262037</v>
       </c>
       <c r="E3">
         <v>-1157.598</v>
@@ -1470,37 +1470,37 @@
         <v>304.6</v>
       </c>
       <c r="M3">
-        <v>0.4835554</v>
+        <v>0.3450924</v>
       </c>
       <c r="N3">
-        <v>304.1164446</v>
+        <v>304.2549076</v>
       </c>
       <c r="O3">
-        <v>66.905617812</v>
+        <v>66.93607967200001</v>
       </c>
       <c r="P3">
-        <v>237.210826788</v>
+        <v>237.318827928</v>
       </c>
       <c r="Q3">
-        <v>303.810826788</v>
+        <v>303.918827928</v>
       </c>
       <c r="R3">
         <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0.126247373440007</v>
+        <v>0.1252872043846944</v>
       </c>
       <c r="T3">
         <v>1.154131446809866</v>
       </c>
       <c r="U3">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
         <v>0.22</v>
       </c>
       <c r="W3">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="Y3">
-        <v>629.9174820506606</v>
+        <v>882.6621507746912</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1519,13 +1519,13 @@
         <v>0.02</v>
       </c>
       <c r="B4">
-        <v>0.1249399349397698</v>
+        <v>0.1239408752200318</v>
       </c>
       <c r="C4">
-        <v>2300.573053512239</v>
+        <v>2292.149622645873</v>
       </c>
       <c r="D4">
-        <v>1961.477053512239</v>
+        <v>1953.053622645873</v>
       </c>
       <c r="E4">
         <v>-1136.296</v>
@@ -1552,37 +1552,37 @@
         <v>304.6</v>
       </c>
       <c r="M4">
-        <v>0.9671108</v>
+        <v>0.6901847999999999</v>
       </c>
       <c r="N4">
-        <v>303.6328892</v>
+        <v>303.9098152</v>
       </c>
       <c r="O4">
-        <v>66.799235624</v>
+        <v>66.86015934400001</v>
       </c>
       <c r="P4">
-        <v>236.833653576</v>
+        <v>237.049655856</v>
       </c>
       <c r="Q4">
-        <v>303.433653576</v>
+        <v>303.649655856</v>
       </c>
       <c r="R4">
         <v>0.02040816326530612</v>
       </c>
       <c r="S4">
-        <v>0.1271283825916018</v>
+        <v>0.1262124032857467</v>
       </c>
       <c r="T4">
         <v>1.163337644613521</v>
       </c>
       <c r="U4">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V4">
         <v>0.22</v>
       </c>
       <c r="W4">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="Y4">
-        <v>314.9587410253303</v>
+        <v>441.3310753873456</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1601,13 +1601,13 @@
         <v>0.03</v>
       </c>
       <c r="B5">
-        <v>0.1247179101739326</v>
+        <v>0.1237210580992161</v>
       </c>
       <c r="C5">
-        <v>2283.269445354366</v>
+        <v>2274.599682199075</v>
       </c>
       <c r="D5">
-        <v>1965.475445354366</v>
+        <v>1956.805682199075</v>
       </c>
       <c r="E5">
         <v>-1114.994</v>
@@ -1634,37 +1634,37 @@
         <v>304.6</v>
       </c>
       <c r="M5">
-        <v>1.4506662</v>
+        <v>1.0352772</v>
       </c>
       <c r="N5">
-        <v>303.1493338</v>
+        <v>303.5647228</v>
       </c>
       <c r="O5">
-        <v>66.69285343600001</v>
+        <v>66.784239016</v>
       </c>
       <c r="P5">
-        <v>236.456480364</v>
+        <v>236.780483784</v>
       </c>
       <c r="Q5">
-        <v>303.056480364</v>
+        <v>303.380483784</v>
       </c>
       <c r="R5">
         <v>0.03092783505154639</v>
       </c>
       <c r="S5">
-        <v>0.1280275568803429</v>
+        <v>0.1271566784528002</v>
       </c>
       <c r="T5">
         <v>1.172733660928592</v>
       </c>
       <c r="U5">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V5">
         <v>0.22</v>
       </c>
       <c r="W5">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="Y5">
-        <v>209.9724940168869</v>
+        <v>294.2207169248971</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1683,13 +1683,13 @@
         <v>0.04</v>
       </c>
       <c r="B6">
-        <v>0.1244958854080954</v>
+        <v>0.1235012409784005</v>
       </c>
       <c r="C6">
-        <v>2265.982171614474</v>
+        <v>2257.064185849749</v>
       </c>
       <c r="D6">
-        <v>1969.490171614474</v>
+        <v>1960.572185849749</v>
       </c>
       <c r="E6">
         <v>-1093.692</v>
@@ -1716,37 +1716,37 @@
         <v>304.6</v>
       </c>
       <c r="M6">
-        <v>1.9342216</v>
+        <v>1.3803696</v>
       </c>
       <c r="N6">
-        <v>302.6657784</v>
+        <v>303.2196304</v>
       </c>
       <c r="O6">
-        <v>66.58647124800001</v>
+        <v>66.70831868800001</v>
       </c>
       <c r="P6">
-        <v>236.079307152</v>
+        <v>236.511311712</v>
       </c>
       <c r="Q6">
-        <v>302.679307152</v>
+        <v>303.111311712</v>
       </c>
       <c r="R6">
         <v>0.04166666666666667</v>
       </c>
       <c r="S6">
-        <v>0.1289454639667661</v>
+        <v>0.1281206260191672</v>
       </c>
       <c r="T6">
         <v>1.182325427583559</v>
       </c>
       <c r="U6">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V6">
         <v>0.22</v>
       </c>
       <c r="W6">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="Y6">
-        <v>157.4793705126652</v>
+        <v>220.6655376936728</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>0.05</v>
       </c>
       <c r="B7">
-        <v>0.1242738606422583</v>
+        <v>0.1232814238575848</v>
       </c>
       <c r="C7">
-        <v>2248.711332592633</v>
+        <v>2239.543217165722</v>
       </c>
       <c r="D7">
-        <v>1973.521332592633</v>
+        <v>1964.353217165722</v>
       </c>
       <c r="E7">
         <v>-1072.39</v>
@@ -1798,37 +1798,37 @@
         <v>304.6</v>
       </c>
       <c r="M7">
-        <v>2.417777</v>
+        <v>1.725462</v>
       </c>
       <c r="N7">
-        <v>302.182223</v>
+        <v>302.874538</v>
       </c>
       <c r="O7">
-        <v>66.48008906000001</v>
+        <v>66.63239836000001</v>
       </c>
       <c r="P7">
-        <v>235.70213394</v>
+        <v>236.24213964</v>
       </c>
       <c r="Q7">
-        <v>302.30213394</v>
+        <v>302.84213964</v>
       </c>
       <c r="R7">
         <v>0.05263157894736843</v>
       </c>
       <c r="S7">
-        <v>0.1298826954129035</v>
+        <v>0.1291048672185104</v>
       </c>
       <c r="T7">
         <v>1.192119126168105</v>
       </c>
       <c r="U7">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V7">
         <v>0.22</v>
       </c>
       <c r="W7">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         </is>
       </c>
       <c r="Y7">
-        <v>125.9834964101321</v>
+        <v>176.5324301549383</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1847,13 +1847,13 @@
         <v>0.06</v>
       </c>
       <c r="B8">
-        <v>0.1240518358764211</v>
+        <v>0.1230616067367692</v>
       </c>
       <c r="C8">
-        <v>2231.457029411778</v>
+        <v>2222.03686036072</v>
       </c>
       <c r="D8">
-        <v>1977.569029411778</v>
+        <v>1968.14886036072</v>
       </c>
       <c r="E8">
         <v>-1051.088</v>
@@ -1880,37 +1880,37 @@
         <v>304.6</v>
       </c>
       <c r="M8">
-        <v>2.9013324</v>
+        <v>2.0705544</v>
       </c>
       <c r="N8">
-        <v>301.6986676</v>
+        <v>302.5294456</v>
       </c>
       <c r="O8">
-        <v>66.373706872</v>
+        <v>66.556478032</v>
       </c>
       <c r="P8">
-        <v>235.324960728</v>
+        <v>235.972967568</v>
       </c>
       <c r="Q8">
-        <v>301.924960728</v>
+        <v>302.572967568</v>
       </c>
       <c r="R8">
         <v>0.06382978723404255</v>
       </c>
       <c r="S8">
-        <v>0.1308398679536395</v>
+        <v>0.1301100497199672</v>
       </c>
       <c r="T8">
         <v>1.20212120131828</v>
       </c>
       <c r="U8">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V8">
         <v>0.22</v>
       </c>
       <c r="W8">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="Y8">
-        <v>104.9862470084434</v>
+        <v>147.1103584624485</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1929,13 +1929,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.1238298111105839</v>
+        <v>0.1228417896159535</v>
       </c>
       <c r="C9">
-        <v>2214.21936402616</v>
+        <v>2204.545200300617</v>
       </c>
       <c r="D9">
-        <v>1981.633364026161</v>
+        <v>1971.959200300617</v>
       </c>
       <c r="E9">
         <v>-1029.786</v>
@@ -1962,37 +1962,37 @@
         <v>304.6</v>
       </c>
       <c r="M9">
-        <v>3.3848878</v>
+        <v>2.4156468</v>
       </c>
       <c r="N9">
-        <v>301.2151122</v>
+        <v>302.1843532</v>
       </c>
       <c r="O9">
-        <v>66.267324684</v>
+        <v>66.48055770400001</v>
       </c>
       <c r="P9">
-        <v>234.947787516</v>
+        <v>235.703795496</v>
       </c>
       <c r="Q9">
-        <v>301.547787516</v>
+        <v>302.303795496</v>
       </c>
       <c r="R9">
         <v>0.07526881720430109</v>
       </c>
       <c r="S9">
-        <v>0.1318176248500902</v>
+        <v>0.1311368490494124</v>
       </c>
       <c r="T9">
         <v>1.212338374858781</v>
       </c>
       <c r="U9">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V9">
         <v>0.22</v>
       </c>
       <c r="W9">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="Y9">
-        <v>89.98821172152293</v>
+        <v>126.094592967813</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0.08</v>
       </c>
       <c r="B10">
-        <v>0.1236077863447467</v>
+        <v>0.1226219724951378</v>
       </c>
       <c r="C10">
-        <v>2196.998439229913</v>
+        <v>2187.068322509769</v>
       </c>
       <c r="D10">
-        <v>1985.714439229914</v>
+        <v>1975.784322509769</v>
       </c>
       <c r="E10">
         <v>-1008.484</v>
@@ -2044,37 +2044,37 @@
         <v>304.6</v>
       </c>
       <c r="M10">
-        <v>3.8684432</v>
+        <v>2.7607392</v>
       </c>
       <c r="N10">
-        <v>300.7315568</v>
+        <v>301.8392608</v>
       </c>
       <c r="O10">
-        <v>66.160942496</v>
+        <v>66.40463737600001</v>
       </c>
       <c r="P10">
-        <v>234.570614304</v>
+        <v>235.434623424</v>
       </c>
       <c r="Q10">
-        <v>301.170614304</v>
+        <v>302.034623424</v>
       </c>
       <c r="R10">
         <v>0.08695652173913043</v>
       </c>
       <c r="S10">
-        <v>0.1328166373312464</v>
+        <v>0.1321859701034107</v>
       </c>
       <c r="T10">
         <v>1.222777660867553</v>
       </c>
       <c r="U10">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V10">
         <v>0.22</v>
       </c>
       <c r="W10">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="Y10">
-        <v>78.73968525633258</v>
+        <v>110.3327688468364</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2093,13 +2093,13 @@
         <v>0.09</v>
       </c>
       <c r="B11">
-        <v>0.1233857615789096</v>
+        <v>0.1224021553743222</v>
       </c>
       <c r="C11">
-        <v>2179.794358665713</v>
+        <v>2169.606313177404</v>
       </c>
       <c r="D11">
-        <v>1989.812358665713</v>
+        <v>1979.624313177404</v>
       </c>
       <c r="E11">
         <v>-987.1820000000001</v>
@@ -2126,37 +2126,37 @@
         <v>304.6</v>
       </c>
       <c r="M11">
-        <v>4.3519986</v>
+        <v>3.1058316</v>
       </c>
       <c r="N11">
-        <v>300.2480014</v>
+        <v>301.4941684</v>
       </c>
       <c r="O11">
-        <v>66.05456030800001</v>
+        <v>66.328717048</v>
       </c>
       <c r="P11">
-        <v>234.193441092</v>
+        <v>235.165451352</v>
       </c>
       <c r="Q11">
-        <v>300.793441092</v>
+        <v>301.765451352</v>
       </c>
       <c r="R11">
         <v>0.0989010989010989</v>
       </c>
       <c r="S11">
-        <v>0.1338376061306699</v>
+        <v>0.1332581487629914</v>
       </c>
       <c r="T11">
         <v>1.233446381733661</v>
       </c>
       <c r="U11">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V11">
         <v>0.22</v>
       </c>
       <c r="W11">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         </is>
       </c>
       <c r="Y11">
-        <v>69.99083133896229</v>
+        <v>98.07357230829903</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2175,13 +2175,13 @@
         <v>0.1</v>
       </c>
       <c r="B12">
-        <v>0.1231637368130724</v>
+        <v>0.1221823382535065</v>
       </c>
       <c r="C12">
-        <v>2162.607226833555</v>
+        <v>2152.159259164101</v>
       </c>
       <c r="D12">
-        <v>1993.927226833555</v>
+        <v>1983.479259164101</v>
       </c>
       <c r="E12">
         <v>-965.8800000000001</v>
@@ -2208,37 +2208,37 @@
         <v>304.6</v>
       </c>
       <c r="M12">
-        <v>4.835554</v>
+        <v>3.450924</v>
       </c>
       <c r="N12">
-        <v>299.764446</v>
+        <v>301.149076</v>
       </c>
       <c r="O12">
-        <v>65.94817812000001</v>
+        <v>66.25279672000001</v>
       </c>
       <c r="P12">
-        <v>233.81626788</v>
+        <v>234.89627928</v>
       </c>
       <c r="Q12">
-        <v>300.41626788</v>
+        <v>301.49627928</v>
       </c>
       <c r="R12">
         <v>0.1111111111111111</v>
       </c>
       <c r="S12">
-        <v>0.134881263125636</v>
+        <v>0.1343541536150072</v>
       </c>
       <c r="T12">
         <v>1.244352185285683</v>
       </c>
       <c r="U12">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V12">
         <v>0.22</v>
       </c>
       <c r="W12">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="Y12">
-        <v>62.99174820506606</v>
+        <v>88.26621507746913</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2257,13 +2257,13 @@
         <v>0.11</v>
       </c>
       <c r="B13">
-        <v>0.1229417120472352</v>
+        <v>0.1219625211326909</v>
       </c>
       <c r="C13">
-        <v>2145.437149099637</v>
+        <v>2134.727248008337</v>
       </c>
       <c r="D13">
-        <v>1998.059149099637</v>
+        <v>1987.349248008337</v>
       </c>
       <c r="E13">
         <v>-944.5780000000001</v>
@@ -2290,37 +2290,37 @@
         <v>304.6</v>
       </c>
       <c r="M13">
-        <v>5.319109399999999</v>
+        <v>3.796016399999999</v>
       </c>
       <c r="N13">
-        <v>299.2808906</v>
+        <v>300.8039836</v>
       </c>
       <c r="O13">
-        <v>65.84179593200001</v>
+        <v>66.17687639200001</v>
       </c>
       <c r="P13">
-        <v>233.439094668</v>
+        <v>234.627107208</v>
       </c>
       <c r="Q13">
-        <v>300.039094668</v>
+        <v>301.227107208</v>
       </c>
       <c r="R13">
         <v>0.1235955056179775</v>
       </c>
       <c r="S13">
-        <v>0.1359483730867811</v>
+        <v>0.1354747877895403</v>
       </c>
       <c r="T13">
         <v>1.255503063074829</v>
       </c>
       <c r="U13">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V13">
         <v>0.22</v>
       </c>
       <c r="W13">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         </is>
       </c>
       <c r="Y13">
-        <v>57.26522564096916</v>
+        <v>80.24201370679012</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2339,13 +2339,13 @@
         <v>0.12</v>
       </c>
       <c r="B14">
-        <v>0.122719687281398</v>
+        <v>0.1217427040118752</v>
       </c>
       <c r="C14">
-        <v>2128.284231705352</v>
+        <v>2117.310367933114</v>
       </c>
       <c r="D14">
-        <v>2002.208231705352</v>
+        <v>1991.234367933114</v>
       </c>
       <c r="E14">
         <v>-923.2760000000001</v>
@@ -2372,37 +2372,37 @@
         <v>304.6</v>
       </c>
       <c r="M14">
-        <v>5.8026648</v>
+        <v>4.1411088</v>
       </c>
       <c r="N14">
-        <v>298.7973352</v>
+        <v>300.4588912</v>
       </c>
       <c r="O14">
-        <v>65.735413744</v>
+        <v>66.10095606400002</v>
       </c>
       <c r="P14">
-        <v>233.061921456</v>
+        <v>234.357935136</v>
       </c>
       <c r="Q14">
-        <v>299.661921456</v>
+        <v>300.957935136</v>
       </c>
       <c r="R14">
         <v>0.1363636363636364</v>
       </c>
       <c r="S14">
-        <v>0.1370397355470432</v>
+        <v>0.1366208909225855</v>
       </c>
       <c r="T14">
         <v>1.266907369904637</v>
       </c>
       <c r="U14">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V14">
         <v>0.22</v>
       </c>
       <c r="W14">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="Y14">
-        <v>52.49312350422172</v>
+        <v>73.55517923122427</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2421,13 +2421,13 @@
         <v>0.13</v>
       </c>
       <c r="B15">
-        <v>0.1224976625155609</v>
+        <v>0.1215228868910595</v>
       </c>
       <c r="C15">
-        <v>2111.148581776393</v>
+        <v>2099.908707852664</v>
       </c>
       <c r="D15">
-        <v>2006.374581776393</v>
+        <v>1995.134707852664</v>
       </c>
       <c r="E15">
         <v>-901.9740000000002</v>
@@ -2454,37 +2454,37 @@
         <v>304.6</v>
       </c>
       <c r="M15">
-        <v>6.2862202</v>
+        <v>4.4862012</v>
       </c>
       <c r="N15">
-        <v>298.3137798</v>
+        <v>300.1137988</v>
       </c>
       <c r="O15">
-        <v>65.629031556</v>
+        <v>66.02503573600001</v>
       </c>
       <c r="P15">
-        <v>232.684748244</v>
+        <v>234.088763064</v>
       </c>
       <c r="Q15">
-        <v>299.284748244</v>
+        <v>300.688763064</v>
       </c>
       <c r="R15">
         <v>0.1494252873563219</v>
       </c>
       <c r="S15">
-        <v>0.1381561867994952</v>
+        <v>0.1377933412540914</v>
       </c>
       <c r="T15">
         <v>1.278573844707544</v>
       </c>
       <c r="U15">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V15">
         <v>0.22</v>
       </c>
       <c r="W15">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="Y15">
-        <v>48.4551909269739</v>
+        <v>67.89708852113009</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2503,13 +2503,13 @@
         <v>0.14</v>
       </c>
       <c r="B16">
-        <v>0.1222756377497237</v>
+        <v>0.1213030697702439</v>
       </c>
       <c r="C16">
-        <v>2094.030307331976</v>
+        <v>2082.522357379227</v>
       </c>
       <c r="D16">
-        <v>2010.558307331977</v>
+        <v>1999.050357379227</v>
       </c>
       <c r="E16">
         <v>-880.672</v>
@@ -2536,37 +2536,37 @@
         <v>304.6</v>
       </c>
       <c r="M16">
-        <v>6.769775600000001</v>
+        <v>4.8312936</v>
       </c>
       <c r="N16">
-        <v>297.8302244</v>
+        <v>299.7687064</v>
       </c>
       <c r="O16">
-        <v>65.522649368</v>
+        <v>65.94911540800001</v>
       </c>
       <c r="P16">
-        <v>232.307575032</v>
+        <v>233.819590992</v>
       </c>
       <c r="Q16">
-        <v>298.907575032</v>
+        <v>300.419590992</v>
       </c>
       <c r="R16">
         <v>0.1627906976744186</v>
       </c>
       <c r="S16">
-        <v>0.1392986020345624</v>
+        <v>0.1389930578723766</v>
       </c>
       <c r="T16">
         <v>1.290511632877961</v>
       </c>
       <c r="U16">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V16">
         <v>0.22</v>
       </c>
       <c r="W16">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         </is>
       </c>
       <c r="Y16">
-        <v>44.99410586076147</v>
+        <v>63.04729648390652</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2585,13 +2585,13 @@
         <v>0.15</v>
       </c>
       <c r="B17">
-        <v>0.1220536129838865</v>
+        <v>0.1210832526494282</v>
       </c>
       <c r="C17">
-        <v>2076.929517294174</v>
+        <v>2065.151406829924</v>
       </c>
       <c r="D17">
-        <v>2014.759517294174</v>
+        <v>2002.981406829924</v>
       </c>
       <c r="E17">
         <v>-859.3700000000001</v>
@@ -2618,37 +2618,37 @@
         <v>304.6</v>
       </c>
       <c r="M17">
-        <v>7.253331</v>
+        <v>5.176385999999999</v>
       </c>
       <c r="N17">
-        <v>297.346669</v>
+        <v>299.423614</v>
       </c>
       <c r="O17">
-        <v>65.41626718000001</v>
+        <v>65.87319508000002</v>
       </c>
       <c r="P17">
-        <v>231.93040182</v>
+        <v>233.55041892</v>
       </c>
       <c r="Q17">
-        <v>298.53040182</v>
+        <v>300.15041892</v>
       </c>
       <c r="R17">
         <v>0.1764705882352941</v>
       </c>
       <c r="S17">
-        <v>0.1404678976281018</v>
+        <v>0.1402210031169744</v>
       </c>
       <c r="T17">
         <v>1.3027303101818</v>
       </c>
       <c r="U17">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V17">
         <v>0.22</v>
       </c>
       <c r="W17">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="Y17">
-        <v>41.99449880337738</v>
+        <v>58.84414338497943</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2667,13 +2667,13 @@
         <v>0.16</v>
       </c>
       <c r="B18">
-        <v>0.1218315882180493</v>
+        <v>0.1208634355286126</v>
       </c>
       <c r="C18">
-        <v>2059.846321497367</v>
+        <v>2047.795947233691</v>
       </c>
       <c r="D18">
-        <v>2018.978321497367</v>
+        <v>2006.92794723369</v>
       </c>
       <c r="E18">
         <v>-838.0680000000001</v>
@@ -2700,37 +2700,37 @@
         <v>304.6</v>
       </c>
       <c r="M18">
-        <v>7.7368864</v>
+        <v>5.521478399999999</v>
       </c>
       <c r="N18">
-        <v>296.8631136</v>
+        <v>299.0785216</v>
       </c>
       <c r="O18">
-        <v>65.30988499200001</v>
+        <v>65.79727475200001</v>
       </c>
       <c r="P18">
-        <v>231.553228608</v>
+        <v>233.281246848</v>
       </c>
       <c r="Q18">
-        <v>298.1532286079999</v>
+        <v>299.881246848</v>
       </c>
       <c r="R18">
         <v>0.1904761904761905</v>
       </c>
       <c r="S18">
-        <v>0.1416650335929159</v>
+        <v>0.1414781851531102</v>
       </c>
       <c r="T18">
         <v>1.315239908373824</v>
       </c>
       <c r="U18">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V18">
         <v>0.22</v>
       </c>
       <c r="W18">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         </is>
       </c>
       <c r="Y18">
-        <v>39.36984262816629</v>
+        <v>55.16638442341821</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2749,13 +2749,13 @@
         <v>0.17</v>
       </c>
       <c r="B19">
-        <v>0.1216095634522122</v>
+        <v>0.1206436184077969</v>
       </c>
       <c r="C19">
-        <v>2042.780830697815</v>
+        <v>2030.456070338309</v>
       </c>
       <c r="D19">
-        <v>2023.214830697815</v>
+        <v>2010.890070338309</v>
       </c>
       <c r="E19">
         <v>-816.7660000000001</v>
@@ -2782,37 +2782,37 @@
         <v>304.6</v>
       </c>
       <c r="M19">
-        <v>8.220441800000001</v>
+        <v>5.8665708</v>
       </c>
       <c r="N19">
-        <v>296.3795582</v>
+        <v>298.7334292</v>
       </c>
       <c r="O19">
-        <v>65.20350280400001</v>
+        <v>65.72135442400001</v>
       </c>
       <c r="P19">
-        <v>231.176055396</v>
+        <v>233.012074776</v>
       </c>
       <c r="Q19">
-        <v>297.7760553959999</v>
+        <v>299.612074776</v>
       </c>
       <c r="R19">
         <v>0.2048192771084338</v>
       </c>
       <c r="S19">
-        <v>0.1428910162074845</v>
+        <v>0.1427656607322855</v>
       </c>
       <c r="T19">
         <v>1.328050942666862</v>
       </c>
       <c r="U19">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V19">
         <v>0.22</v>
       </c>
       <c r="W19">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="Y19">
-        <v>37.0539695323918</v>
+        <v>51.92130298674654</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2831,13 +2831,13 @@
         <v>0.18</v>
       </c>
       <c r="B20">
-        <v>0.121387538686375</v>
+        <v>0.1204238012869813</v>
       </c>
       <c r="C20">
-        <v>2025.733156583356</v>
+        <v>2013.131868617518</v>
       </c>
       <c r="D20">
-        <v>2027.469156583356</v>
+        <v>2014.867868617518</v>
       </c>
       <c r="E20">
         <v>-795.4640000000002</v>
@@ -2864,37 +2864,37 @@
         <v>304.6</v>
       </c>
       <c r="M20">
-        <v>8.7039972</v>
+        <v>6.211663199999999</v>
       </c>
       <c r="N20">
-        <v>295.8960028</v>
+        <v>298.3883368</v>
       </c>
       <c r="O20">
-        <v>65.097120616</v>
+        <v>65.64543409600002</v>
       </c>
       <c r="P20">
-        <v>230.798882184</v>
+        <v>232.742902704</v>
       </c>
       <c r="Q20">
-        <v>297.398882184</v>
+        <v>299.342902704</v>
       </c>
       <c r="R20">
         <v>0.2195121951219512</v>
       </c>
       <c r="S20">
-        <v>0.1441469008370427</v>
+        <v>0.1440845381548552</v>
       </c>
       <c r="T20">
         <v>1.341174441210949</v>
       </c>
       <c r="U20">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V20">
         <v>0.22</v>
       </c>
       <c r="W20">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="Y20">
-        <v>34.99541566948115</v>
+        <v>49.03678615414952</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2913,13 +2913,13 @@
         <v>0.19</v>
       </c>
       <c r="B21">
-        <v>0.1211655139205378</v>
+        <v>0.1202039841661656</v>
       </c>
       <c r="C21">
-        <v>2008.703411783211</v>
+        <v>1995.823435278206</v>
       </c>
       <c r="D21">
-        <v>2031.741411783211</v>
+        <v>2018.861435278206</v>
       </c>
       <c r="E21">
         <v>-774.1620000000001</v>
@@ -2946,37 +2946,37 @@
         <v>304.6</v>
       </c>
       <c r="M21">
-        <v>9.1875526</v>
+        <v>6.556755599999999</v>
       </c>
       <c r="N21">
-        <v>295.4124474</v>
+        <v>298.0432444</v>
       </c>
       <c r="O21">
-        <v>64.990738428</v>
+        <v>65.56951376800001</v>
       </c>
       <c r="P21">
-        <v>230.421708972</v>
+        <v>232.473730632</v>
       </c>
       <c r="Q21">
-        <v>297.021708972</v>
+        <v>299.073730632</v>
       </c>
       <c r="R21">
         <v>0.2345679012345679</v>
       </c>
       <c r="S21">
-        <v>0.1454337949636269</v>
+        <v>0.1454359804520563</v>
       </c>
       <c r="T21">
         <v>1.354621976756125</v>
       </c>
       <c r="U21">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V21">
         <v>0.22</v>
       </c>
       <c r="W21">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         </is>
       </c>
       <c r="Y21">
-        <v>33.15355168687687</v>
+        <v>46.45590267235217</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0.2</v>
       </c>
       <c r="B22">
-        <v>0.1209434891547006</v>
+        <v>0.11998416704535</v>
       </c>
       <c r="C22">
-        <v>1991.691709877934</v>
+        <v>1978.530864267691</v>
       </c>
       <c r="D22">
-        <v>2036.031709877934</v>
+        <v>2022.870864267691</v>
       </c>
       <c r="E22">
         <v>-752.8600000000001</v>
@@ -3028,37 +3028,37 @@
         <v>304.6</v>
       </c>
       <c r="M22">
-        <v>9.671108</v>
+        <v>6.901847999999999</v>
       </c>
       <c r="N22">
-        <v>294.928892</v>
+        <v>297.6981520000001</v>
       </c>
       <c r="O22">
-        <v>64.88435624</v>
+        <v>65.49359344000001</v>
       </c>
       <c r="P22">
-        <v>230.04453576</v>
+        <v>232.20455856</v>
       </c>
       <c r="Q22">
-        <v>296.64453576</v>
+        <v>298.80455856</v>
       </c>
       <c r="R22">
         <v>0.25</v>
       </c>
       <c r="S22">
-        <v>0.1467528614433758</v>
+        <v>0.1468212088066874</v>
       </c>
       <c r="T22">
         <v>1.368405700689931</v>
       </c>
       <c r="U22">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V22">
         <v>0.22</v>
       </c>
       <c r="W22">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="Y22">
-        <v>31.49587410253303</v>
+        <v>44.13310753873456</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0.21</v>
       </c>
       <c r="B23">
-        <v>0.1207214643888634</v>
+        <v>0.1197643499245343</v>
       </c>
       <c r="C23">
-        <v>1974.698165409467</v>
+        <v>1961.254250281089</v>
       </c>
       <c r="D23">
-        <v>2040.340165409467</v>
+        <v>2026.896250281088</v>
       </c>
       <c r="E23">
         <v>-731.5580000000002</v>
@@ -3110,37 +3110,37 @@
         <v>304.6</v>
       </c>
       <c r="M23">
-        <v>10.1546634</v>
+        <v>7.246940399999999</v>
       </c>
       <c r="N23">
-        <v>294.4453366</v>
+        <v>297.3530596000001</v>
       </c>
       <c r="O23">
-        <v>64.777974052</v>
+        <v>65.41767311200002</v>
       </c>
       <c r="P23">
-        <v>229.667362548</v>
+        <v>231.935386488</v>
       </c>
       <c r="Q23">
-        <v>296.267362548</v>
+        <v>298.535386488</v>
       </c>
       <c r="R23">
         <v>0.2658227848101266</v>
       </c>
       <c r="S23">
-        <v>0.1481053220112195</v>
+        <v>0.1482415062335877</v>
       </c>
       <c r="T23">
         <v>1.382538379660035</v>
       </c>
       <c r="U23">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V23">
         <v>0.22</v>
       </c>
       <c r="W23">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         </is>
       </c>
       <c r="Y23">
-        <v>29.99607057384098</v>
+        <v>42.03153098927102</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3159,13 +3159,13 @@
         <v>0.22</v>
       </c>
       <c r="B24">
-        <v>0.1204994396230263</v>
+        <v>0.1195445328037186</v>
       </c>
       <c r="C24">
-        <v>1957.722893891342</v>
+        <v>1943.993688768765</v>
       </c>
       <c r="D24">
-        <v>2044.666893891341</v>
+        <v>2030.937688768765</v>
       </c>
       <c r="E24">
         <v>-710.2560000000001</v>
@@ -3192,37 +3192,37 @@
         <v>304.6</v>
       </c>
       <c r="M24">
-        <v>10.6382188</v>
+        <v>7.592032799999998</v>
       </c>
       <c r="N24">
-        <v>293.9617812</v>
+        <v>297.0079672000001</v>
       </c>
       <c r="O24">
-        <v>64.67159186400001</v>
+        <v>65.34175278400001</v>
       </c>
       <c r="P24">
-        <v>229.290189336</v>
+        <v>231.6662144160001</v>
       </c>
       <c r="Q24">
-        <v>295.890189336</v>
+        <v>298.266214416</v>
       </c>
       <c r="R24">
         <v>0.282051282051282</v>
       </c>
       <c r="S24">
-        <v>0.1494924610551619</v>
+        <v>0.149698221543229</v>
       </c>
       <c r="T24">
         <v>1.397033435013988</v>
       </c>
       <c r="U24">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V24">
         <v>0.22</v>
       </c>
       <c r="W24">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         </is>
       </c>
       <c r="Y24">
-        <v>28.63261282048458</v>
+        <v>40.12100685339507</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>0.23</v>
       </c>
       <c r="B25">
-        <v>0.1202774148571891</v>
+        <v>0.119324715682903</v>
       </c>
       <c r="C25">
-        <v>1940.766011818998</v>
+        <v>1926.749275943885</v>
       </c>
       <c r="D25">
-        <v>2049.012011818998</v>
+        <v>2034.995275943885</v>
       </c>
       <c r="E25">
         <v>-688.9540000000002</v>
@@ -3274,37 +3274,37 @@
         <v>304.6</v>
       </c>
       <c r="M25">
-        <v>11.1217742</v>
+        <v>7.937125199999999</v>
       </c>
       <c r="N25">
-        <v>293.4782258</v>
+        <v>296.6628748</v>
       </c>
       <c r="O25">
-        <v>64.56520967600001</v>
+        <v>65.265832456</v>
       </c>
       <c r="P25">
-        <v>228.913016124</v>
+        <v>231.397042344</v>
       </c>
       <c r="Q25">
-        <v>295.513016124</v>
+        <v>297.997042344</v>
       </c>
       <c r="R25">
         <v>0.2987012987012987</v>
       </c>
       <c r="S25">
-        <v>0.1509156296846612</v>
+        <v>0.1511927736141597</v>
       </c>
       <c r="T25">
         <v>1.411904985312199</v>
       </c>
       <c r="U25">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V25">
         <v>0.22</v>
       </c>
       <c r="W25">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="Y25">
-        <v>27.38771661089829</v>
+        <v>38.37661525107353</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0.24</v>
       </c>
       <c r="B26">
-        <v>0.1200553900913519</v>
+        <v>0.1191048985620873</v>
       </c>
       <c r="C26">
-        <v>1923.827636680246</v>
+        <v>1909.521108790044</v>
       </c>
       <c r="D26">
-        <v>2053.375636680246</v>
+        <v>2039.069108790044</v>
       </c>
       <c r="E26">
         <v>-667.6520000000002</v>
@@ -3356,37 +3356,37 @@
         <v>304.6</v>
       </c>
       <c r="M26">
-        <v>11.6053296</v>
+        <v>8.282217599999999</v>
       </c>
       <c r="N26">
-        <v>292.9946704</v>
+        <v>296.3177824</v>
       </c>
       <c r="O26">
-        <v>64.45882748800001</v>
+        <v>65.189912128</v>
       </c>
       <c r="P26">
-        <v>228.535842912</v>
+        <v>231.127870272</v>
       </c>
       <c r="Q26">
-        <v>295.135842912</v>
+        <v>297.727870272</v>
       </c>
       <c r="R26">
         <v>0.3157894736842105</v>
       </c>
       <c r="S26">
-        <v>0.1523762501201999</v>
+        <v>0.1527266560027465</v>
       </c>
       <c r="T26">
         <v>1.427167892197206</v>
       </c>
       <c r="U26">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V26">
         <v>0.22</v>
       </c>
       <c r="W26">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="Y26">
-        <v>26.24656175211086</v>
+        <v>36.77758961561213</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>0.25</v>
       </c>
       <c r="B27">
-        <v>0.1198333653255147</v>
+        <v>0.1188850814412716</v>
       </c>
       <c r="C27">
-        <v>1906.907886965846</v>
+        <v>1892.309285068999</v>
       </c>
       <c r="D27">
-        <v>2057.757886965846</v>
+        <v>2043.159285068999</v>
       </c>
       <c r="E27">
         <v>-646.3500000000001</v>
@@ -3438,37 +3438,37 @@
         <v>304.6</v>
       </c>
       <c r="M27">
-        <v>12.088885</v>
+        <v>8.62731</v>
       </c>
       <c r="N27">
-        <v>292.511115</v>
+        <v>295.97269</v>
       </c>
       <c r="O27">
-        <v>64.3524453</v>
+        <v>65.11399179999999</v>
       </c>
       <c r="P27">
-        <v>228.1586697</v>
+        <v>230.8586982</v>
       </c>
       <c r="Q27">
-        <v>294.7586697</v>
+        <v>297.4586982</v>
       </c>
       <c r="R27">
         <v>0.3333333333333333</v>
       </c>
       <c r="S27">
-        <v>0.1538758204340197</v>
+        <v>0.1543014419216955</v>
       </c>
       <c r="T27">
         <v>1.442837809932479</v>
       </c>
       <c r="U27">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V27">
         <v>0.22</v>
       </c>
       <c r="W27">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="Y27">
-        <v>25.19669928202643</v>
+        <v>35.30648603098764</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -3487,13 +3487,13 @@
         <v>0.26</v>
       </c>
       <c r="B28">
-        <v>0.1196113405596776</v>
+        <v>0.118665264320456</v>
       </c>
       <c r="C28">
-        <v>1890.006882180242</v>
+        <v>1875.113903328483</v>
       </c>
       <c r="D28">
-        <v>2062.158882180242</v>
+        <v>2047.265903328483</v>
       </c>
       <c r="E28">
         <v>-625.0480000000001</v>
@@ -3520,37 +3520,37 @@
         <v>304.6</v>
       </c>
       <c r="M28">
-        <v>12.5724404</v>
+        <v>8.9724024</v>
       </c>
       <c r="N28">
-        <v>292.0275596</v>
+        <v>295.6275976</v>
       </c>
       <c r="O28">
-        <v>64.246063112</v>
+        <v>65.038071472</v>
       </c>
       <c r="P28">
-        <v>227.781496488</v>
+        <v>230.589526128</v>
       </c>
       <c r="Q28">
-        <v>294.381496488</v>
+        <v>297.189526128</v>
       </c>
       <c r="R28">
         <v>0.3513513513513514</v>
       </c>
       <c r="S28">
-        <v>0.1554159196752399</v>
+        <v>0.1559187896222378</v>
       </c>
       <c r="T28">
         <v>1.458931238957895</v>
       </c>
       <c r="U28">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V28">
         <v>0.22</v>
       </c>
       <c r="W28">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="Y28">
-        <v>24.22759546348695</v>
+        <v>33.94854426056504</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -3569,13 +3569,13 @@
         <v>0.27</v>
       </c>
       <c r="B29">
-        <v>0.1193893157938404</v>
+        <v>0.1184454471996403</v>
       </c>
       <c r="C29">
-        <v>1873.124742852421</v>
+        <v>1857.935062910124</v>
       </c>
       <c r="D29">
-        <v>2066.578742852421</v>
+        <v>2051.389062910124</v>
       </c>
       <c r="E29">
         <v>-603.7460000000001</v>
@@ -3602,37 +3602,37 @@
         <v>304.6</v>
       </c>
       <c r="M29">
-        <v>13.0559958</v>
+        <v>9.317494799999999</v>
       </c>
       <c r="N29">
-        <v>291.5440042</v>
+        <v>295.2825052</v>
       </c>
       <c r="O29">
-        <v>64.139680924</v>
+        <v>64.962151144</v>
       </c>
       <c r="P29">
-        <v>227.404323276</v>
+        <v>230.320354056</v>
       </c>
       <c r="Q29">
-        <v>294.004323276</v>
+        <v>296.920354056</v>
       </c>
       <c r="R29">
         <v>0.3698630136986302</v>
       </c>
       <c r="S29">
-        <v>0.1569982134162197</v>
+        <v>0.1575804482186854</v>
       </c>
       <c r="T29">
         <v>1.475465583847021</v>
       </c>
       <c r="U29">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V29">
         <v>0.22</v>
       </c>
       <c r="W29">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="Y29">
-        <v>23.33027711298743</v>
+        <v>32.69119076943301</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -3651,13 +3651,13 @@
         <v>0.28</v>
       </c>
       <c r="B30">
-        <v>0.1191672910280032</v>
+        <v>0.1182256300788247</v>
       </c>
       <c r="C30">
-        <v>1856.261590546917</v>
+        <v>1840.772863957456</v>
       </c>
       <c r="D30">
-        <v>2071.017590546917</v>
+        <v>2055.528863957456</v>
       </c>
       <c r="E30">
         <v>-582.4440000000001</v>
@@ -3684,37 +3684,37 @@
         <v>304.6</v>
       </c>
       <c r="M30">
-        <v>13.5395512</v>
+        <v>9.662587199999999</v>
       </c>
       <c r="N30">
-        <v>291.0604488</v>
+        <v>294.9374128</v>
       </c>
       <c r="O30">
-        <v>64.03329873600001</v>
+        <v>64.88623081600001</v>
       </c>
       <c r="P30">
-        <v>227.027150064</v>
+        <v>230.051181984</v>
       </c>
       <c r="Q30">
-        <v>293.627150064</v>
+        <v>296.6511819839999</v>
       </c>
       <c r="R30">
         <v>0.388888888888889</v>
       </c>
       <c r="S30">
-        <v>0.1586244597611156</v>
+        <v>0.1592882639983676</v>
       </c>
       <c r="T30">
         <v>1.492459216094178</v>
       </c>
       <c r="U30">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V30">
         <v>0.22</v>
       </c>
       <c r="W30">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="Y30">
-        <v>22.49705293038073</v>
+        <v>31.52364824195326</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -3733,13 +3733,13 @@
         <v>0.29</v>
       </c>
       <c r="B31">
-        <v>0.118945266262166</v>
+        <v>0.118005812958009</v>
       </c>
       <c r="C31">
-        <v>1839.417547874955</v>
+        <v>1823.627407424025</v>
       </c>
       <c r="D31">
-        <v>2075.475547874955</v>
+        <v>2059.685407424025</v>
       </c>
       <c r="E31">
         <v>-561.1420000000002</v>
@@ -3766,37 +3766,37 @@
         <v>304.6</v>
       </c>
       <c r="M31">
-        <v>14.0231066</v>
+        <v>10.0076796</v>
       </c>
       <c r="N31">
-        <v>290.5768934</v>
+        <v>294.5923204</v>
       </c>
       <c r="O31">
-        <v>63.926916548</v>
+        <v>64.810310488</v>
       </c>
       <c r="P31">
-        <v>226.649976852</v>
+        <v>229.782009912</v>
       </c>
       <c r="Q31">
-        <v>293.249976852</v>
+        <v>296.3820099119999</v>
       </c>
       <c r="R31">
         <v>0.4084507042253521</v>
       </c>
       <c r="S31">
-        <v>0.1602965158622057</v>
+        <v>0.1610441872648014</v>
       </c>
       <c r="T31">
         <v>1.509931542207452</v>
       </c>
       <c r="U31">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V31">
         <v>0.22</v>
       </c>
       <c r="W31">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         </is>
       </c>
       <c r="Y31">
-        <v>21.72129248450554</v>
+        <v>30.43662588878246</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3815,13 +3815,13 @@
         <v>0.3</v>
       </c>
       <c r="B32">
-        <v>0.1187232414963288</v>
+        <v>0.1177859958371933</v>
       </c>
       <c r="C32">
-        <v>1822.592738505743</v>
+        <v>1806.498795081593</v>
       </c>
       <c r="D32">
-        <v>2079.952738505743</v>
+        <v>2063.858795081593</v>
       </c>
       <c r="E32">
         <v>-539.8400000000001</v>
@@ -3848,37 +3848,37 @@
         <v>304.6</v>
       </c>
       <c r="M32">
-        <v>14.506662</v>
+        <v>10.352772</v>
       </c>
       <c r="N32">
-        <v>290.093338</v>
+        <v>294.247228</v>
       </c>
       <c r="O32">
-        <v>63.82053436</v>
+        <v>64.73439016</v>
       </c>
       <c r="P32">
-        <v>226.27280364</v>
+        <v>229.51283784</v>
       </c>
       <c r="Q32">
-        <v>292.87280364</v>
+        <v>296.11283784</v>
       </c>
       <c r="R32">
         <v>0.4285714285714286</v>
       </c>
       <c r="S32">
-        <v>0.1620163449947555</v>
+        <v>0.1628502797674191</v>
       </c>
       <c r="T32">
         <v>1.527903077638249</v>
       </c>
       <c r="U32">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V32">
         <v>0.22</v>
       </c>
       <c r="W32">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         </is>
       </c>
       <c r="Y32">
-        <v>20.99724940168869</v>
+        <v>29.42207169248971</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         <v>0.31</v>
       </c>
       <c r="B33">
-        <v>0.1185012167304917</v>
+        <v>0.1175661787163777</v>
       </c>
       <c r="C33">
-        <v>1805.787287177907</v>
+        <v>1789.38712952845</v>
       </c>
       <c r="D33">
-        <v>2084.449287177907</v>
+        <v>2068.049129528451</v>
       </c>
       <c r="E33">
         <v>-518.5380000000001</v>
@@ -3930,37 +3930,37 @@
         <v>304.6</v>
       </c>
       <c r="M33">
-        <v>14.9902174</v>
+        <v>10.6978644</v>
       </c>
       <c r="N33">
-        <v>289.6097826</v>
+        <v>293.9021356</v>
       </c>
       <c r="O33">
-        <v>63.71415217200001</v>
+        <v>64.65846983200001</v>
       </c>
       <c r="P33">
-        <v>225.895630428</v>
+        <v>229.243665768</v>
       </c>
       <c r="Q33">
-        <v>292.495630428</v>
+        <v>295.8436657679999</v>
       </c>
       <c r="R33">
         <v>0.4492753623188406</v>
       </c>
       <c r="S33">
-        <v>0.1637860242470894</v>
+        <v>0.164708722777359</v>
       </c>
       <c r="T33">
         <v>1.546395527139503</v>
       </c>
       <c r="U33">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V33">
         <v>0.22</v>
       </c>
       <c r="W33">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         </is>
       </c>
       <c r="Y33">
-        <v>20.31991877582776</v>
+        <v>28.4729726056352</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -3979,13 +3979,13 @@
         <v>0.32</v>
       </c>
       <c r="B34">
-        <v>0.1182791919646545</v>
+        <v>0.117346361595562</v>
       </c>
       <c r="C34">
-        <v>1789.001319711075</v>
+        <v>1772.29251419782</v>
       </c>
       <c r="D34">
-        <v>2088.965319711075</v>
+        <v>2072.25651419782</v>
       </c>
       <c r="E34">
         <v>-497.2360000000001</v>
@@ -4012,37 +4012,37 @@
         <v>304.6</v>
       </c>
       <c r="M34">
-        <v>15.4737728</v>
+        <v>11.0429568</v>
       </c>
       <c r="N34">
-        <v>289.1262272</v>
+        <v>293.5570432</v>
       </c>
       <c r="O34">
-        <v>63.607769984</v>
+        <v>64.582549504</v>
       </c>
       <c r="P34">
-        <v>225.518457216</v>
+        <v>228.974493696</v>
       </c>
       <c r="Q34">
-        <v>292.118457216</v>
+        <v>295.574493696</v>
       </c>
       <c r="R34">
         <v>0.4705882352941177</v>
       </c>
       <c r="S34">
-        <v>0.1656077528891978</v>
+        <v>0.1666218258758266</v>
       </c>
       <c r="T34">
         <v>1.565431872214324</v>
       </c>
       <c r="U34">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V34">
         <v>0.22</v>
       </c>
       <c r="W34">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         </is>
       </c>
       <c r="Y34">
-        <v>19.68492131408314</v>
+        <v>27.5831922117091</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -4061,13 +4061,13 @@
         <v>0.33</v>
       </c>
       <c r="B35">
-        <v>0.1180571671988173</v>
+        <v>0.1171265444747464</v>
       </c>
       <c r="C35">
-        <v>1772.234963017613</v>
+        <v>1755.215053366365</v>
       </c>
       <c r="D35">
-        <v>2093.500963017613</v>
+        <v>2076.481053366365</v>
       </c>
       <c r="E35">
         <v>-475.9340000000001</v>
@@ -4094,37 +4094,37 @@
         <v>304.6</v>
       </c>
       <c r="M35">
-        <v>15.9573282</v>
+        <v>11.3880492</v>
       </c>
       <c r="N35">
-        <v>288.6426718</v>
+        <v>293.2119508</v>
       </c>
       <c r="O35">
-        <v>63.501387796</v>
+        <v>64.506629176</v>
       </c>
       <c r="P35">
-        <v>225.141284004</v>
+        <v>228.705321624</v>
       </c>
       <c r="Q35">
-        <v>291.741284004</v>
+        <v>295.305321624</v>
       </c>
       <c r="R35">
         <v>0.4925373134328359</v>
       </c>
       <c r="S35">
-        <v>0.1674838614907721</v>
+        <v>0.1685920365294722</v>
       </c>
       <c r="T35">
         <v>1.585036466395855</v>
       </c>
       <c r="U35">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V35">
         <v>0.22</v>
       </c>
       <c r="W35">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="Y35">
-        <v>19.08840854698972</v>
+        <v>26.74733790226337</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>0.34</v>
       </c>
       <c r="B36">
-        <v>0.1178351424329801</v>
+        <v>0.1169067273539307</v>
       </c>
       <c r="C36">
-        <v>1755.488345114514</v>
+        <v>1738.15485216281</v>
       </c>
       <c r="D36">
-        <v>2098.056345114514</v>
+        <v>2080.72285216281</v>
       </c>
       <c r="E36">
         <v>-454.6320000000001</v>
@@ -4176,37 +4176,37 @@
         <v>304.6</v>
       </c>
       <c r="M36">
-        <v>16.4408836</v>
+        <v>11.7331416</v>
       </c>
       <c r="N36">
-        <v>288.1591164</v>
+        <v>292.8668584</v>
       </c>
       <c r="O36">
-        <v>63.39500560800001</v>
+        <v>64.43070884800001</v>
       </c>
       <c r="P36">
-        <v>224.764110792</v>
+        <v>228.436149552</v>
       </c>
       <c r="Q36">
-        <v>291.364110792</v>
+        <v>295.036149552</v>
       </c>
       <c r="R36">
         <v>0.5151515151515152</v>
       </c>
       <c r="S36">
-        <v>0.1694168218681517</v>
+        <v>0.1706219505362587</v>
       </c>
       <c r="T36">
         <v>1.605235139188949</v>
       </c>
       <c r="U36">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V36">
         <v>0.22</v>
       </c>
       <c r="W36">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         </is>
       </c>
       <c r="Y36">
-        <v>18.5269847661959</v>
+        <v>25.96065149337327</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -4225,13 +4225,13 @@
         <v>0.35</v>
       </c>
       <c r="B37">
-        <v>0.117613117667143</v>
+        <v>0.1166869102331151</v>
       </c>
       <c r="C37">
-        <v>1738.761595135441</v>
+        <v>1721.112016576656</v>
       </c>
       <c r="D37">
-        <v>2102.631595135441</v>
+        <v>2084.982016576656</v>
       </c>
       <c r="E37">
         <v>-433.33</v>
@@ -4258,37 +4258,37 @@
         <v>304.6</v>
       </c>
       <c r="M37">
-        <v>16.924439</v>
+        <v>12.078234</v>
       </c>
       <c r="N37">
-        <v>287.675561</v>
+        <v>292.521766</v>
       </c>
       <c r="O37">
-        <v>63.28862342</v>
+        <v>64.35478852</v>
       </c>
       <c r="P37">
-        <v>224.38693758</v>
+        <v>228.16697748</v>
       </c>
       <c r="Q37">
-        <v>290.98693758</v>
+        <v>294.76697748</v>
       </c>
       <c r="R37">
         <v>0.5384615384615385</v>
       </c>
       <c r="S37">
-        <v>0.1714092579494507</v>
+        <v>0.1727143234355617</v>
       </c>
       <c r="T37">
         <v>1.626055309606445</v>
       </c>
       <c r="U37">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V37">
         <v>0.22</v>
       </c>
       <c r="W37">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="Y37">
-        <v>17.99764234430459</v>
+        <v>25.2189185935626</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -4307,13 +4307,13 @@
         <v>0.36</v>
       </c>
       <c r="B38">
-        <v>0.1173910929013058</v>
+        <v>0.1164670931122994</v>
       </c>
       <c r="C38">
-        <v>1722.054843342932</v>
+        <v>1704.086653467012</v>
       </c>
       <c r="D38">
-        <v>2107.226843342932</v>
+        <v>2089.258653467012</v>
       </c>
       <c r="E38">
         <v>-412.0280000000001</v>
@@ -4340,37 +4340,37 @@
         <v>304.6</v>
       </c>
       <c r="M38">
-        <v>17.4079944</v>
+        <v>12.4233264</v>
       </c>
       <c r="N38">
-        <v>287.1920056</v>
+        <v>292.1766736</v>
       </c>
       <c r="O38">
-        <v>63.182241232</v>
+        <v>64.278868192</v>
       </c>
       <c r="P38">
-        <v>224.009764368</v>
+        <v>227.897805408</v>
       </c>
       <c r="Q38">
-        <v>290.609764368</v>
+        <v>294.497805408</v>
       </c>
       <c r="R38">
         <v>0.5625</v>
       </c>
       <c r="S38">
-        <v>0.1734639576582903</v>
+        <v>0.1748720829879678</v>
       </c>
       <c r="T38">
         <v>1.647526110349488</v>
       </c>
       <c r="U38">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V38">
         <v>0.22</v>
       </c>
       <c r="W38">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="Y38">
-        <v>17.49770783474057</v>
+        <v>24.51839307707476</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -4389,13 +4389,13 @@
         <v>0.37</v>
       </c>
       <c r="B39">
-        <v>0.1171690681354686</v>
+        <v>0.1162472759914837</v>
       </c>
       <c r="C39">
-        <v>1705.36822114076</v>
+        <v>1687.078870571531</v>
       </c>
       <c r="D39">
-        <v>2111.84222114076</v>
+        <v>2093.552870571531</v>
       </c>
       <c r="E39">
         <v>-390.7260000000001</v>
@@ -4422,37 +4422,37 @@
         <v>304.6</v>
       </c>
       <c r="M39">
-        <v>17.8915498</v>
+        <v>12.7684188</v>
       </c>
       <c r="N39">
-        <v>286.7084502</v>
+        <v>291.8315812</v>
       </c>
       <c r="O39">
-        <v>63.075859044</v>
+        <v>64.20294786400001</v>
       </c>
       <c r="P39">
-        <v>223.632591156</v>
+        <v>227.628633336</v>
       </c>
       <c r="Q39">
-        <v>290.232591156</v>
+        <v>294.228633336</v>
       </c>
       <c r="R39">
         <v>0.5873015873015873</v>
       </c>
       <c r="S39">
-        <v>0.1755838859293153</v>
+        <v>0.177098342843625</v>
       </c>
       <c r="T39">
         <v>1.669678523814532</v>
       </c>
       <c r="U39">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V39">
         <v>0.22</v>
       </c>
       <c r="W39">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         </is>
       </c>
       <c r="Y39">
-        <v>17.02479681218002</v>
+        <v>23.85573380472138</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -4471,13 +4471,13 @@
         <v>0.38</v>
       </c>
       <c r="B40">
-        <v>0.1169470433696314</v>
+        <v>0.1160274588706681</v>
       </c>
       <c r="C40">
-        <v>1688.701861086462</v>
+        <v>1670.088776515455</v>
       </c>
       <c r="D40">
-        <v>2116.477861086462</v>
+        <v>2097.864776515456</v>
       </c>
       <c r="E40">
         <v>-369.4240000000002</v>
@@ -4504,37 +4504,37 @@
         <v>304.6</v>
       </c>
       <c r="M40">
-        <v>18.3751052</v>
+        <v>13.1135112</v>
       </c>
       <c r="N40">
-        <v>286.2248948</v>
+        <v>291.4864888</v>
       </c>
       <c r="O40">
-        <v>62.96947685600001</v>
+        <v>64.127027536</v>
       </c>
       <c r="P40">
-        <v>223.255417944</v>
+        <v>227.359461264</v>
       </c>
       <c r="Q40">
-        <v>289.855417944</v>
+        <v>293.959461264</v>
       </c>
       <c r="R40">
         <v>0.6129032258064516</v>
       </c>
       <c r="S40">
-        <v>0.1777721989832765</v>
+        <v>0.1793964175333356</v>
       </c>
       <c r="T40">
         <v>1.692545531262319</v>
       </c>
       <c r="U40">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V40">
         <v>0.22</v>
       </c>
       <c r="W40">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="Y40">
-        <v>16.57677584343844</v>
+        <v>23.22795133617609</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -4553,13 +4553,13 @@
         <v>0.39</v>
       </c>
       <c r="B41">
-        <v>0.1167250186037942</v>
+        <v>0.1158076417498524</v>
       </c>
       <c r="C41">
-        <v>1672.055896904023</v>
+        <v>1653.11648082078</v>
       </c>
       <c r="D41">
-        <v>2121.133896904023</v>
+        <v>2102.19448082078</v>
       </c>
       <c r="E41">
         <v>-348.1220000000002</v>
@@ -4586,37 +4586,37 @@
         <v>304.6</v>
       </c>
       <c r="M41">
-        <v>18.8586606</v>
+        <v>13.4586036</v>
       </c>
       <c r="N41">
-        <v>285.7413394</v>
+        <v>291.1413964</v>
       </c>
       <c r="O41">
-        <v>62.863094668</v>
+        <v>64.051107208</v>
       </c>
       <c r="P41">
-        <v>222.878244732</v>
+        <v>227.090289192</v>
       </c>
       <c r="Q41">
-        <v>289.478244732</v>
+        <v>293.690289192</v>
       </c>
       <c r="R41">
         <v>0.639344262295082</v>
       </c>
       <c r="S41">
-        <v>0.1800322600062201</v>
+        <v>0.1817698389341843</v>
       </c>
       <c r="T41">
         <v>1.716162276659215</v>
       </c>
       <c r="U41">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V41">
         <v>0.22</v>
       </c>
       <c r="W41">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         </is>
       </c>
       <c r="Y41">
-        <v>16.1517303089913</v>
+        <v>22.6323628403767</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -4635,13 +4635,13 @@
         <v>0.4</v>
       </c>
       <c r="B42">
-        <v>0.1165029938379571</v>
+        <v>0.1155878246290368</v>
       </c>
       <c r="C42">
-        <v>1655.430463496743</v>
+        <v>1636.162093915519</v>
       </c>
       <c r="D42">
-        <v>2125.810463496743</v>
+        <v>2106.542093915519</v>
       </c>
       <c r="E42">
         <v>-326.8200000000002</v>
@@ -4668,37 +4668,37 @@
         <v>304.6</v>
       </c>
       <c r="M42">
-        <v>19.342216</v>
+        <v>13.803696</v>
       </c>
       <c r="N42">
-        <v>285.257784</v>
+        <v>290.796304</v>
       </c>
       <c r="O42">
-        <v>62.75671248</v>
+        <v>63.97518688</v>
       </c>
       <c r="P42">
-        <v>222.50107152</v>
+        <v>226.82111712</v>
       </c>
       <c r="Q42">
-        <v>289.10107152</v>
+        <v>293.42111712</v>
       </c>
       <c r="R42">
         <v>0.6666666666666667</v>
       </c>
       <c r="S42">
-        <v>0.1823676563965951</v>
+        <v>0.1842223743817279</v>
       </c>
       <c r="T42">
         <v>1.740566246902673</v>
       </c>
       <c r="U42">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V42">
         <v>0.22</v>
       </c>
       <c r="W42">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="Y42">
-        <v>15.74793705126651</v>
+        <v>22.06655376936728</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -4717,13 +4717,13 @@
         <v>0.41</v>
       </c>
       <c r="B43">
-        <v>0.1162809690721199</v>
+        <v>0.1153680075082211</v>
       </c>
       <c r="C43">
-        <v>1638.825696960258</v>
+        <v>1619.225727143103</v>
       </c>
       <c r="D43">
-        <v>2130.507696960258</v>
+        <v>2110.907727143103</v>
       </c>
       <c r="E43">
         <v>-305.5180000000001</v>
@@ -4750,37 +4750,37 @@
         <v>304.6</v>
       </c>
       <c r="M43">
-        <v>19.8257714</v>
+        <v>14.1487884</v>
       </c>
       <c r="N43">
-        <v>284.7742286</v>
+        <v>290.4512116</v>
       </c>
       <c r="O43">
-        <v>62.65033029200001</v>
+        <v>63.89926655200001</v>
       </c>
       <c r="P43">
-        <v>222.123898308</v>
+        <v>226.551945048</v>
       </c>
       <c r="Q43">
-        <v>288.723898308</v>
+        <v>293.151945048</v>
       </c>
       <c r="R43">
         <v>0.6949152542372882</v>
       </c>
       <c r="S43">
-        <v>0.1847822187663049</v>
+        <v>0.1867580466241036</v>
       </c>
       <c r="T43">
         <v>1.765797470374723</v>
       </c>
       <c r="U43">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V43">
         <v>0.22</v>
       </c>
       <c r="W43">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         </is>
       </c>
       <c r="Y43">
-        <v>15.36384102562587</v>
+        <v>21.52834514084613</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -4799,13 +4799,13 @@
         <v>0.42</v>
       </c>
       <c r="B44">
-        <v>0.1160589443062827</v>
+        <v>0.1151481903874055</v>
       </c>
       <c r="C44">
-        <v>1622.241734595751</v>
+        <v>1602.307492771876</v>
       </c>
       <c r="D44">
-        <v>2135.225734595751</v>
+        <v>2115.291492771876</v>
       </c>
       <c r="E44">
         <v>-284.2160000000002</v>
@@ -4832,37 +4832,37 @@
         <v>304.6</v>
       </c>
       <c r="M44">
-        <v>20.3093268</v>
+        <v>14.4938808</v>
       </c>
       <c r="N44">
-        <v>284.2906732</v>
+        <v>290.1061192</v>
       </c>
       <c r="O44">
-        <v>62.543948104</v>
+        <v>63.82334622400001</v>
       </c>
       <c r="P44">
-        <v>221.746725096</v>
+        <v>226.282772976</v>
       </c>
       <c r="Q44">
-        <v>288.346725096</v>
+        <v>292.882772976</v>
       </c>
       <c r="R44">
         <v>0.7241379310344827</v>
       </c>
       <c r="S44">
-        <v>0.187280041907384</v>
+        <v>0.1893811558403542</v>
       </c>
       <c r="T44">
         <v>1.791898736035465</v>
       </c>
       <c r="U44">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V44">
         <v>0.22</v>
       </c>
       <c r="W44">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="Y44">
-        <v>14.99803528692049</v>
+        <v>21.01576549463551</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -4881,13 +4881,13 @@
         <v>0.43</v>
       </c>
       <c r="B45">
-        <v>0.1158369195404455</v>
+        <v>0.1149283732665898</v>
       </c>
       <c r="C45">
-        <v>1605.678714923325</v>
+        <v>1585.407504004723</v>
       </c>
       <c r="D45">
-        <v>2139.964714923325</v>
+        <v>2119.693504004723</v>
       </c>
       <c r="E45">
         <v>-262.9140000000002</v>
@@ -4914,37 +4914,37 @@
         <v>304.6</v>
       </c>
       <c r="M45">
-        <v>20.7928822</v>
+        <v>14.8389732</v>
       </c>
       <c r="N45">
-        <v>283.8071178</v>
+        <v>289.7610268</v>
       </c>
       <c r="O45">
-        <v>62.437565916</v>
+        <v>63.747425896</v>
       </c>
       <c r="P45">
-        <v>221.369551884</v>
+        <v>226.013600904</v>
       </c>
       <c r="Q45">
-        <v>287.969551884</v>
+        <v>292.613600904</v>
       </c>
       <c r="R45">
         <v>0.7543859649122806</v>
       </c>
       <c r="S45">
-        <v>0.1898655079656939</v>
+        <v>0.1920963039764733</v>
       </c>
       <c r="T45">
         <v>1.81891583557904</v>
       </c>
       <c r="U45">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V45">
         <v>0.22</v>
       </c>
       <c r="W45">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="Y45">
-        <v>14.64924376862002</v>
+        <v>20.52702676220212</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -4963,13 +4963,13 @@
         <v>0.44</v>
       </c>
       <c r="B46">
-        <v>0.1156148947746084</v>
+        <v>0.1147085561457741</v>
       </c>
       <c r="C46">
-        <v>1589.136777695554</v>
+        <v>1568.525874988817</v>
       </c>
       <c r="D46">
-        <v>2144.724777695555</v>
+        <v>2124.113874988817</v>
       </c>
       <c r="E46">
         <v>-241.6120000000002</v>
@@ -4996,37 +4996,37 @@
         <v>304.6</v>
       </c>
       <c r="M46">
-        <v>21.2764376</v>
+        <v>15.1840656</v>
       </c>
       <c r="N46">
-        <v>283.3235624</v>
+        <v>289.4159344</v>
       </c>
       <c r="O46">
-        <v>62.33118372800001</v>
+        <v>63.67150556800001</v>
       </c>
       <c r="P46">
-        <v>220.992378672</v>
+        <v>225.744428832</v>
       </c>
       <c r="Q46">
-        <v>287.592378672</v>
+        <v>292.3444288319999</v>
       </c>
       <c r="R46">
         <v>0.7857142857142857</v>
       </c>
       <c r="S46">
-        <v>0.1925433120975149</v>
+        <v>0.1949084216888824</v>
       </c>
       <c r="T46">
         <v>1.846897831534885</v>
       </c>
       <c r="U46">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V46">
         <v>0.22</v>
       </c>
       <c r="W46">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         </is>
       </c>
       <c r="Y46">
-        <v>14.31630641024229</v>
+        <v>20.06050342669753</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -5045,13 +5045,13 @@
         <v>0.45</v>
       </c>
       <c r="B47">
-        <v>0.1153928700087712</v>
+        <v>0.1144887390249585</v>
       </c>
       <c r="C47">
-        <v>1572.616063911235</v>
+        <v>1551.662720825479</v>
       </c>
       <c r="D47">
-        <v>2149.506063911235</v>
+        <v>2128.552720825479</v>
       </c>
       <c r="E47">
         <v>-220.3100000000002</v>
@@ -5078,37 +5078,37 @@
         <v>304.6</v>
       </c>
       <c r="M47">
-        <v>21.759993</v>
+        <v>15.529158</v>
       </c>
       <c r="N47">
-        <v>282.840007</v>
+        <v>289.070842</v>
       </c>
       <c r="O47">
-        <v>62.22480154</v>
+        <v>63.59558524000001</v>
       </c>
       <c r="P47">
-        <v>220.61520546</v>
+        <v>225.47525676</v>
       </c>
       <c r="Q47">
-        <v>287.21520546</v>
+        <v>292.07525676</v>
       </c>
       <c r="R47">
         <v>0.8181818181818181</v>
       </c>
       <c r="S47">
-        <v>0.1953184909250385</v>
+        <v>0.1978227982271972</v>
       </c>
       <c r="T47">
         <v>1.875897354616398</v>
       </c>
       <c r="U47">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V47">
         <v>0.22</v>
       </c>
       <c r="W47">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         </is>
       </c>
       <c r="Y47">
-        <v>13.99816626779246</v>
+        <v>19.61471446165981</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -5127,13 +5127,13 @@
         <v>0.46</v>
       </c>
       <c r="B48">
-        <v>0.115170845242934</v>
+        <v>0.1142689219041428</v>
       </c>
       <c r="C48">
-        <v>1556.116715829298</v>
+        <v>1534.818157580174</v>
       </c>
       <c r="D48">
-        <v>2154.308715829298</v>
+        <v>2133.010157580174</v>
       </c>
       <c r="E48">
         <v>-199.0080000000002</v>
@@ -5160,37 +5160,37 @@
         <v>304.6</v>
       </c>
       <c r="M48">
-        <v>22.2435484</v>
+        <v>15.8742504</v>
       </c>
       <c r="N48">
-        <v>282.3564516</v>
+        <v>288.7257496</v>
       </c>
       <c r="O48">
-        <v>62.118419352</v>
+        <v>63.519664912</v>
       </c>
       <c r="P48">
-        <v>220.238032248</v>
+        <v>225.206084688</v>
       </c>
       <c r="Q48">
-        <v>286.838032248</v>
+        <v>291.806084688</v>
       </c>
       <c r="R48">
         <v>0.8518518518518519</v>
       </c>
       <c r="S48">
-        <v>0.1981964541535815</v>
+        <v>0.2008451146373015</v>
       </c>
       <c r="T48">
         <v>1.905970934108336</v>
       </c>
       <c r="U48">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V48">
         <v>0.22</v>
       </c>
       <c r="W48">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         </is>
       </c>
       <c r="Y48">
-        <v>13.69385830544914</v>
+        <v>19.18830762553677</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -5209,13 +5209,13 @@
         <v>0.47</v>
       </c>
       <c r="B49">
-        <v>0.1149488204770968</v>
+        <v>0.1140491047833272</v>
       </c>
       <c r="C49">
-        <v>1539.63887698292</v>
+        <v>1517.992302292624</v>
       </c>
       <c r="D49">
-        <v>2159.13287698292</v>
+        <v>2137.486302292624</v>
       </c>
       <c r="E49">
         <v>-177.7060000000001</v>
@@ -5242,37 +5242,37 @@
         <v>304.6</v>
       </c>
       <c r="M49">
-        <v>22.7271038</v>
+        <v>16.2193428</v>
       </c>
       <c r="N49">
-        <v>281.8728962</v>
+        <v>288.3806572</v>
       </c>
       <c r="O49">
-        <v>62.01203716400001</v>
+        <v>63.44374458400001</v>
       </c>
       <c r="P49">
-        <v>219.860859036</v>
+        <v>224.936912616</v>
       </c>
       <c r="Q49">
-        <v>286.460859036</v>
+        <v>291.536912616</v>
       </c>
       <c r="R49">
         <v>0.8867924528301887</v>
       </c>
       <c r="S49">
-        <v>0.2011830197681072</v>
+        <v>0.2039814807232588</v>
       </c>
       <c r="T49">
         <v>1.937179365656575</v>
       </c>
       <c r="U49">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V49">
         <v>0.22</v>
       </c>
       <c r="W49">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         </is>
       </c>
       <c r="Y49">
-        <v>13.40249961809916</v>
+        <v>18.78004576116364</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -5291,13 +5291,13 @@
         <v>0.48</v>
       </c>
       <c r="B50">
-        <v>0.1153258357112597</v>
+        <v>0.1138292876625115</v>
       </c>
       <c r="C50">
-        <v>1510.157835014702</v>
+        <v>1501.185272987057</v>
       </c>
       <c r="D50">
-        <v>2150.953835014702</v>
+        <v>2141.981272987057</v>
       </c>
       <c r="E50">
         <v>-156.4040000000002</v>
@@ -5324,45 +5324,45 @@
         <v>304.6</v>
       </c>
       <c r="M50">
-        <v>24.8466528</v>
+        <v>16.5644352</v>
       </c>
       <c r="N50">
-        <v>279.7533472</v>
+        <v>288.0355648</v>
       </c>
       <c r="O50">
-        <v>61.545736384</v>
+        <v>63.36782425600001</v>
       </c>
       <c r="P50">
-        <v>218.207610816</v>
+        <v>224.667740544</v>
       </c>
       <c r="Q50">
-        <v>284.807610816</v>
+        <v>291.267740544</v>
       </c>
       <c r="R50">
         <v>0.923076923076923</v>
       </c>
       <c r="S50">
-        <v>0.204284453290884</v>
+        <v>0.2072384762740606</v>
       </c>
       <c r="T50">
         <v>1.96958812149513</v>
       </c>
       <c r="U50">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V50">
         <v>0.22</v>
       </c>
       <c r="W50">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y50">
-        <v>12.25919653853738</v>
+        <v>18.38879480780607</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -5373,13 +5373,13 @@
         <v>0.49</v>
       </c>
       <c r="B51">
-        <v>0.1151162909454225</v>
+        <v>0.1136094705416959</v>
       </c>
       <c r="C51">
-        <v>1493.394074546144</v>
+        <v>1484.397188682571</v>
       </c>
       <c r="D51">
-        <v>2155.492074546144</v>
+        <v>2146.495188682572</v>
       </c>
       <c r="E51">
         <v>-135.1020000000001</v>
@@ -5406,45 +5406,45 @@
         <v>304.6</v>
       </c>
       <c r="M51">
-        <v>25.3642914</v>
+        <v>16.9095276</v>
       </c>
       <c r="N51">
-        <v>279.2357086</v>
+        <v>287.6904724</v>
       </c>
       <c r="O51">
-        <v>61.431855892</v>
+        <v>63.29190392800001</v>
       </c>
       <c r="P51">
-        <v>217.803852708</v>
+        <v>224.398568472</v>
       </c>
       <c r="Q51">
-        <v>284.403852708</v>
+        <v>290.998568472</v>
       </c>
       <c r="R51">
         <v>0.9607843137254901</v>
       </c>
       <c r="S51">
-        <v>0.2075075116576912</v>
+        <v>0.2106231971405801</v>
       </c>
       <c r="T51">
         <v>2.003267808935198</v>
       </c>
       <c r="U51">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V51">
         <v>0.22</v>
       </c>
       <c r="W51">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y51">
-        <v>12.00900885407743</v>
+        <v>18.01351328111615</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5455,13 +5455,13 @@
         <v>0.5</v>
       </c>
       <c r="B52">
-        <v>0.1149067461795853</v>
+        <v>0.1133896534208802</v>
       </c>
       <c r="C52">
-        <v>1476.649504786122</v>
+        <v>1467.628169403653</v>
       </c>
       <c r="D52">
-        <v>2160.049504786122</v>
+        <v>2151.028169403653</v>
       </c>
       <c r="E52">
         <v>-113.8000000000002</v>
@@ -5488,45 +5488,45 @@
         <v>304.6</v>
       </c>
       <c r="M52">
-        <v>25.88193</v>
+        <v>17.25462</v>
       </c>
       <c r="N52">
-        <v>278.71807</v>
+        <v>287.34538</v>
       </c>
       <c r="O52">
-        <v>61.3179754</v>
+        <v>63.21598360000001</v>
       </c>
       <c r="P52">
-        <v>217.4000946</v>
+        <v>224.1293964</v>
       </c>
       <c r="Q52">
-        <v>284.0000946</v>
+        <v>290.7293964</v>
       </c>
       <c r="R52">
         <v>1</v>
       </c>
       <c r="S52">
-        <v>0.2108594923591706</v>
+        <v>0.2141433068417604</v>
       </c>
       <c r="T52">
         <v>2.038294683872867</v>
       </c>
       <c r="U52">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V52">
         <v>0.22</v>
       </c>
       <c r="W52">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y52">
-        <v>11.76882867699588</v>
+        <v>17.65324301549382</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -5537,13 +5537,13 @@
         <v>0.51</v>
       </c>
       <c r="B53">
-        <v>0.1146972014137481</v>
+        <v>0.1131698363000645</v>
       </c>
       <c r="C53">
-        <v>1459.924247719256</v>
+        <v>1450.878336190801</v>
       </c>
       <c r="D53">
-        <v>2164.626247719256</v>
+        <v>2155.580336190801</v>
       </c>
       <c r="E53">
         <v>-92.49800000000027</v>
@@ -5570,45 +5570,45 @@
         <v>304.6</v>
       </c>
       <c r="M53">
-        <v>26.3995686</v>
+        <v>17.5997124</v>
       </c>
       <c r="N53">
-        <v>278.2004314</v>
+        <v>287.0002876</v>
       </c>
       <c r="O53">
-        <v>61.204094908</v>
+        <v>63.14006327200001</v>
       </c>
       <c r="P53">
-        <v>216.996336492</v>
+        <v>223.860224328</v>
       </c>
       <c r="Q53">
-        <v>283.596336492</v>
+        <v>290.460224328</v>
       </c>
       <c r="R53">
         <v>1.040816326530612</v>
       </c>
       <c r="S53">
-        <v>0.214348288599486</v>
+        <v>0.2178070944899276</v>
       </c>
       <c r="T53">
         <v>2.07475122717534</v>
       </c>
       <c r="U53">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V53">
         <v>0.22</v>
       </c>
       <c r="W53">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y53">
-        <v>11.53806733038812</v>
+        <v>17.30710099558218</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -5619,13 +5619,13 @@
         <v>0.52</v>
       </c>
       <c r="B54">
-        <v>0.114487656647911</v>
+        <v>0.1129500191792489</v>
       </c>
       <c r="C54">
-        <v>1443.218426366213</v>
+        <v>1434.147811111311</v>
       </c>
       <c r="D54">
-        <v>2169.222426366213</v>
+        <v>2160.151811111311</v>
       </c>
       <c r="E54">
         <v>-71.19600000000014</v>
@@ -5652,45 +5652,45 @@
         <v>304.6</v>
       </c>
       <c r="M54">
-        <v>26.9172072</v>
+        <v>17.9448048</v>
       </c>
       <c r="N54">
-        <v>277.6827928</v>
+        <v>286.6551952</v>
       </c>
       <c r="O54">
-        <v>61.090214416</v>
+        <v>63.06414294400001</v>
       </c>
       <c r="P54">
-        <v>216.592578384</v>
+        <v>223.591052256</v>
       </c>
       <c r="Q54">
-        <v>283.1925783839999</v>
+        <v>290.191052256</v>
       </c>
       <c r="R54">
         <v>1.083333333333333</v>
       </c>
       <c r="S54">
-        <v>0.2179824513498145</v>
+        <v>0.2216235399567685</v>
       </c>
       <c r="T54">
         <v>2.112726793115416</v>
       </c>
       <c r="U54">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V54">
         <v>0.22</v>
       </c>
       <c r="W54">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y54">
-        <v>11.31618142018835</v>
+        <v>16.97427213028252</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -5701,13 +5701,13 @@
         <v>0.53</v>
       </c>
       <c r="B55">
-        <v>0.1142781118820738</v>
+        <v>0.1127302020584332</v>
       </c>
       <c r="C55">
-        <v>1426.532164794728</v>
+        <v>1417.436717270182</v>
       </c>
       <c r="D55">
-        <v>2173.838164794728</v>
+        <v>2164.742717270182</v>
       </c>
       <c r="E55">
         <v>-49.89400000000023</v>
@@ -5734,45 +5734,45 @@
         <v>304.6</v>
       </c>
       <c r="M55">
-        <v>27.4348458</v>
+        <v>18.2898972</v>
       </c>
       <c r="N55">
-        <v>277.1651542</v>
+        <v>286.3101028</v>
       </c>
       <c r="O55">
-        <v>60.976333924</v>
+        <v>62.98822261600001</v>
       </c>
       <c r="P55">
-        <v>216.188820276</v>
+        <v>223.321880184</v>
       </c>
       <c r="Q55">
-        <v>282.788820276</v>
+        <v>289.921880184</v>
       </c>
       <c r="R55">
         <v>1.127659574468085</v>
       </c>
       <c r="S55">
-        <v>0.2217712593235612</v>
+        <v>0.2256023873583685</v>
       </c>
       <c r="T55">
         <v>2.152318340584856</v>
       </c>
       <c r="U55">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V55">
         <v>0.22</v>
       </c>
       <c r="W55">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y55">
-        <v>11.10266856320366</v>
+        <v>16.6540028448055</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -5783,13 +5783,13 @@
         <v>0.54</v>
       </c>
       <c r="B56">
-        <v>0.1140685671162366</v>
+        <v>0.1125103849376175</v>
       </c>
       <c r="C56">
-        <v>1409.865588130767</v>
+        <v>1400.745178821164</v>
       </c>
       <c r="D56">
-        <v>2178.473588130767</v>
+        <v>2169.353178821164</v>
       </c>
       <c r="E56">
         <v>-28.5920000000001</v>
@@ -5816,45 +5816,45 @@
         <v>304.6</v>
       </c>
       <c r="M56">
-        <v>27.9524844</v>
+        <v>18.6349896</v>
       </c>
       <c r="N56">
-        <v>276.6475156</v>
+        <v>285.9650104</v>
       </c>
       <c r="O56">
-        <v>60.862453432</v>
+        <v>62.91230228800001</v>
       </c>
       <c r="P56">
-        <v>215.785062168</v>
+        <v>223.052708112</v>
       </c>
       <c r="Q56">
-        <v>282.385062168</v>
+        <v>289.652708112</v>
       </c>
       <c r="R56">
         <v>1.173913043478261</v>
       </c>
       <c r="S56">
-        <v>0.2257247980787752</v>
+        <v>0.2297542281252556</v>
       </c>
       <c r="T56">
         <v>2.193631259683404</v>
       </c>
       <c r="U56">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V56">
         <v>0.22</v>
       </c>
       <c r="W56">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y56">
-        <v>10.897063589811</v>
+        <v>16.3455953847165</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -5865,13 +5865,13 @@
         <v>0.55</v>
       </c>
       <c r="B57">
-        <v>0.1138590223503994</v>
+        <v>0.1122905678168019</v>
       </c>
       <c r="C57">
-        <v>1393.218822569839</v>
+        <v>1384.073320977958</v>
       </c>
       <c r="D57">
-        <v>2183.128822569839</v>
+        <v>2173.983320977959</v>
       </c>
       <c r="E57">
         <v>-7.290000000000191</v>
@@ -5898,45 +5898,45 @@
         <v>304.6</v>
       </c>
       <c r="M57">
-        <v>28.470123</v>
+        <v>18.980082</v>
       </c>
       <c r="N57">
-        <v>276.129877</v>
+        <v>285.619918</v>
       </c>
       <c r="O57">
-        <v>60.74857294</v>
+        <v>62.83638196000001</v>
       </c>
       <c r="P57">
-        <v>215.38130406</v>
+        <v>222.78353604</v>
       </c>
       <c r="Q57">
-        <v>281.98130406</v>
+        <v>289.38353604</v>
       </c>
       <c r="R57">
         <v>1.222222222222223</v>
       </c>
       <c r="S57">
-        <v>0.2298540496675543</v>
+        <v>0.2340905951484487</v>
       </c>
       <c r="T57">
         <v>2.236780308519664</v>
       </c>
       <c r="U57">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V57">
         <v>0.22</v>
       </c>
       <c r="W57">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y57">
-        <v>10.69893516090535</v>
+        <v>16.04840274135803</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -5947,13 +5947,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B58">
-        <v>0.1136494775845622</v>
+        <v>0.1120707506959862</v>
       </c>
       <c r="C58">
-        <v>1376.591995388442</v>
+        <v>1367.421270025546</v>
       </c>
       <c r="D58">
-        <v>2187.803995388443</v>
+        <v>2178.633270025546</v>
       </c>
       <c r="E58">
         <v>14.01199999999994</v>
@@ -5980,45 +5980,45 @@
         <v>304.6</v>
       </c>
       <c r="M58">
-        <v>28.9877616</v>
+        <v>19.3251744</v>
       </c>
       <c r="N58">
-        <v>275.6122384</v>
+        <v>285.2748256</v>
       </c>
       <c r="O58">
-        <v>60.634692448</v>
+        <v>62.76046163200001</v>
       </c>
       <c r="P58">
-        <v>214.977545952</v>
+        <v>222.514363968</v>
       </c>
       <c r="Q58">
-        <v>281.577545952</v>
+        <v>289.114363968</v>
       </c>
       <c r="R58">
         <v>1.272727272727273</v>
       </c>
       <c r="S58">
-        <v>0.2341709945103687</v>
+        <v>0.2386240697636051</v>
       </c>
       <c r="T58">
         <v>2.281890677757572</v>
       </c>
       <c r="U58">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V58">
         <v>0.22</v>
       </c>
       <c r="W58">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y58">
-        <v>10.50788274731775</v>
+        <v>15.76182412097663</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -6029,13 +6029,13 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B59">
-        <v>0.1144180528187251</v>
+        <v>0.1118509335751706</v>
       </c>
       <c r="C59">
-        <v>1338.239446122895</v>
+        <v>1350.789153331671</v>
       </c>
       <c r="D59">
-        <v>2170.753446122895</v>
+        <v>2183.303153331671</v>
       </c>
       <c r="E59">
         <v>35.31399999999985</v>
@@ -6062,45 +6062,45 @@
         <v>304.6</v>
       </c>
       <c r="M59">
-        <v>32.176671</v>
+        <v>19.6702668</v>
       </c>
       <c r="N59">
-        <v>272.423329</v>
+        <v>284.9297332</v>
       </c>
       <c r="O59">
-        <v>59.93313238</v>
+        <v>62.68454130400001</v>
       </c>
       <c r="P59">
-        <v>212.49019662</v>
+        <v>222.2451918960001</v>
       </c>
       <c r="Q59">
-        <v>279.09019662</v>
+        <v>288.845191896</v>
       </c>
       <c r="R59">
         <v>1.325581395348838</v>
       </c>
       <c r="S59">
-        <v>0.2386887274854071</v>
+        <v>0.2433684036631874</v>
       </c>
       <c r="T59">
         <v>2.32909920370422</v>
       </c>
       <c r="U59">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V59">
         <v>0.22</v>
       </c>
       <c r="W59">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y59">
-        <v>9.466485827573649</v>
+        <v>15.48530089078406</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -6111,13 +6111,13 @@
         <v>0.58</v>
       </c>
       <c r="B60">
-        <v>0.1142256680528879</v>
+        <v>0.1116311164543549</v>
       </c>
       <c r="C60">
-        <v>1321.180443927067</v>
+        <v>1334.177099358471</v>
       </c>
       <c r="D60">
-        <v>2174.996443927067</v>
+        <v>2187.993099358471</v>
       </c>
       <c r="E60">
         <v>56.61599999999976</v>
@@ -6144,45 +6144,45 @@
         <v>304.6</v>
       </c>
       <c r="M60">
-        <v>32.741174</v>
+        <v>20.0153592</v>
       </c>
       <c r="N60">
-        <v>271.858826</v>
+        <v>284.5846408</v>
       </c>
       <c r="O60">
-        <v>59.80894172000001</v>
+        <v>62.60862097600001</v>
       </c>
       <c r="P60">
-        <v>212.04988428</v>
+        <v>221.976019824</v>
       </c>
       <c r="Q60">
-        <v>278.64988428</v>
+        <v>288.576019824</v>
       </c>
       <c r="R60">
         <v>1.380952380952381</v>
       </c>
       <c r="S60">
-        <v>0.243421590602114</v>
+        <v>0.2483386582246545</v>
       </c>
       <c r="T60">
         <v>2.378555754695946</v>
       </c>
       <c r="U60">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V60">
         <v>0.22</v>
       </c>
       <c r="W60">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y60">
-        <v>9.303270554684447</v>
+        <v>15.21831294439123</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -6193,13 +6193,13 @@
         <v>0.59</v>
       </c>
       <c r="B61">
-        <v>0.1140332832870507</v>
+        <v>0.1114112993335392</v>
       </c>
       <c r="C61">
-        <v>1304.138061111387</v>
+        <v>1317.585237674256</v>
       </c>
       <c r="D61">
-        <v>2179.256061111387</v>
+        <v>2192.703237674256</v>
       </c>
       <c r="E61">
         <v>77.91799999999967</v>
@@ -6226,45 +6226,45 @@
         <v>304.6</v>
       </c>
       <c r="M61">
-        <v>33.305677</v>
+        <v>20.36045159999999</v>
       </c>
       <c r="N61">
-        <v>271.294323</v>
+        <v>284.2395484</v>
       </c>
       <c r="O61">
-        <v>59.68475106</v>
+        <v>62.53270064800001</v>
       </c>
       <c r="P61">
-        <v>211.60957194</v>
+        <v>221.706847752</v>
       </c>
       <c r="Q61">
-        <v>278.20957194</v>
+        <v>288.306847752</v>
       </c>
       <c r="R61">
         <v>1.439024390243902</v>
       </c>
       <c r="S61">
-        <v>0.2483853250903675</v>
+        <v>0.2535513642281444</v>
       </c>
       <c r="T61">
         <v>2.430424820370196</v>
       </c>
       <c r="U61">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V61">
         <v>0.22</v>
       </c>
       <c r="W61">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y61">
-        <v>9.145588002910136</v>
+        <v>14.96037543685918</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -6275,13 +6275,13 @@
         <v>0.6</v>
       </c>
       <c r="B62">
-        <v>0.1138408985212135</v>
+        <v>0.1111914822127236</v>
       </c>
       <c r="C62">
-        <v>1287.112395512029</v>
+        <v>1301.013698965441</v>
       </c>
       <c r="D62">
-        <v>2183.532395512029</v>
+        <v>2197.433698965441</v>
       </c>
       <c r="E62">
         <v>99.2199999999998</v>
@@ -6308,45 +6308,45 @@
         <v>304.6</v>
       </c>
       <c r="M62">
-        <v>33.87018</v>
+        <v>20.705544</v>
       </c>
       <c r="N62">
-        <v>270.72982</v>
+        <v>283.894456</v>
       </c>
       <c r="O62">
-        <v>59.56056040000001</v>
+        <v>62.45678032000001</v>
       </c>
       <c r="P62">
-        <v>211.1692596</v>
+        <v>221.43767568</v>
       </c>
       <c r="Q62">
-        <v>277.7692595999999</v>
+        <v>288.03767568</v>
       </c>
       <c r="R62">
         <v>1.5</v>
       </c>
       <c r="S62">
-        <v>0.2535972463030338</v>
+        <v>0.259024705531809</v>
       </c>
       <c r="T62">
         <v>2.484887339328159</v>
       </c>
       <c r="U62">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V62">
         <v>0.22</v>
       </c>
       <c r="W62">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y62">
-        <v>8.993161536194966</v>
+        <v>14.71103584624486</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -6357,13 +6357,13 @@
         <v>0.61</v>
       </c>
       <c r="B63">
-        <v>0.1136485137553763</v>
+        <v>0.1109716650919079</v>
       </c>
       <c r="C63">
-        <v>1270.103545734614</v>
+        <v>1284.462615048632</v>
       </c>
       <c r="D63">
-        <v>2187.825545734614</v>
+        <v>2202.184615048632</v>
       </c>
       <c r="E63">
         <v>120.5219999999997</v>
@@ -6390,45 +6390,45 @@
         <v>304.6</v>
       </c>
       <c r="M63">
-        <v>34.434683</v>
+        <v>21.05063639999999</v>
       </c>
       <c r="N63">
-        <v>270.165317</v>
+        <v>283.5493636</v>
       </c>
       <c r="O63">
-        <v>59.43636974</v>
+        <v>62.38085999200001</v>
       </c>
       <c r="P63">
-        <v>210.72894726</v>
+        <v>221.168503608</v>
       </c>
       <c r="Q63">
-        <v>277.3289472599999</v>
+        <v>287.768503608</v>
       </c>
       <c r="R63">
         <v>1.564102564102564</v>
       </c>
       <c r="S63">
-        <v>0.259076445526606</v>
+        <v>0.2647787310048921</v>
       </c>
       <c r="T63">
         <v>2.542142807976272</v>
       </c>
       <c r="U63">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V63">
         <v>0.22</v>
       </c>
       <c r="W63">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y63">
-        <v>8.845732658552425</v>
+        <v>14.46987132417527</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -6439,13 +6439,13 @@
         <v>0.62</v>
       </c>
       <c r="B64">
-        <v>0.1134561289895392</v>
+        <v>0.1107518479710923</v>
       </c>
       <c r="C64">
-        <v>1253.11161116178</v>
+        <v>1267.932118882868</v>
       </c>
       <c r="D64">
-        <v>2192.13561116178</v>
+        <v>2206.956118882868</v>
       </c>
       <c r="E64">
         <v>141.8239999999998</v>
@@ -6472,45 +6472,45 @@
         <v>304.6</v>
       </c>
       <c r="M64">
-        <v>34.999186</v>
+        <v>21.3957288</v>
       </c>
       <c r="N64">
-        <v>269.600814</v>
+        <v>283.2042712000001</v>
       </c>
       <c r="O64">
-        <v>59.31217908</v>
+        <v>62.30493966400001</v>
       </c>
       <c r="P64">
-        <v>210.28863492</v>
+        <v>220.899331536</v>
       </c>
       <c r="Q64">
-        <v>276.88863492</v>
+        <v>287.499331536</v>
       </c>
       <c r="R64">
         <v>1.631578947368421</v>
       </c>
       <c r="S64">
-        <v>0.264844023656682</v>
+        <v>0.270835599923927</v>
       </c>
       <c r="T64">
         <v>2.602411722342709</v>
       </c>
       <c r="U64">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V64">
         <v>0.22</v>
       </c>
       <c r="W64">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y64">
-        <v>8.703059551156418</v>
+        <v>14.2364863028176</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -6521,13 +6521,13 @@
         <v>0.63</v>
       </c>
       <c r="B65">
-        <v>0.113263744223702</v>
+        <v>0.1105320308502766</v>
       </c>
       <c r="C65">
-        <v>1236.136691960859</v>
+        <v>1251.422344582033</v>
       </c>
       <c r="D65">
-        <v>2196.462691960859</v>
+        <v>2211.748344582033</v>
       </c>
       <c r="E65">
         <v>163.1259999999997</v>
@@ -6554,45 +6554,45 @@
         <v>304.6</v>
       </c>
       <c r="M65">
-        <v>35.563689</v>
+        <v>21.7408212</v>
       </c>
       <c r="N65">
-        <v>269.036311</v>
+        <v>282.8591788000001</v>
       </c>
       <c r="O65">
-        <v>59.18798842</v>
+        <v>62.22901933600001</v>
       </c>
       <c r="P65">
-        <v>209.84832258</v>
+        <v>220.630159464</v>
       </c>
       <c r="Q65">
-        <v>276.44832258</v>
+        <v>287.230159464</v>
       </c>
       <c r="R65">
         <v>1.702702702702703</v>
       </c>
       <c r="S65">
-        <v>0.2709233627667622</v>
+        <v>0.2772198671629097</v>
       </c>
       <c r="T65">
         <v>2.665938415864087</v>
       </c>
       <c r="U65">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V65">
         <v>0.22</v>
       </c>
       <c r="W65">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y65">
-        <v>8.564915748757112</v>
+        <v>14.01051032975701</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -6603,13 +6603,13 @@
         <v>0.64</v>
       </c>
       <c r="B66">
-        <v>0.1130713594578648</v>
+        <v>0.110312213729461</v>
       </c>
       <c r="C66">
-        <v>1219.17888909163</v>
+        <v>1234.93342742741</v>
       </c>
       <c r="D66">
-        <v>2200.80688909163</v>
+        <v>2216.56142742741</v>
       </c>
       <c r="E66">
         <v>184.4279999999999</v>
@@ -6636,45 +6636,45 @@
         <v>304.6</v>
       </c>
       <c r="M66">
-        <v>36.12819200000001</v>
+        <v>22.0859136</v>
       </c>
       <c r="N66">
-        <v>268.471808</v>
+        <v>282.5140864</v>
       </c>
       <c r="O66">
-        <v>59.06379776</v>
+        <v>62.153099008</v>
       </c>
       <c r="P66">
-        <v>209.40801024</v>
+        <v>220.360987392</v>
       </c>
       <c r="Q66">
-        <v>276.00801024</v>
+        <v>286.960987392</v>
       </c>
       <c r="R66">
         <v>1.777777777777778</v>
       </c>
       <c r="S66">
-        <v>0.2773404429385133</v>
+        <v>0.2839588159151693</v>
       </c>
       <c r="T66">
         <v>2.732994370136653</v>
       </c>
       <c r="U66">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V66">
         <v>0.22</v>
       </c>
       <c r="W66">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y66">
-        <v>8.431088940182779</v>
+        <v>13.79159610585455</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -6685,13 +6685,13 @@
         <v>0.65</v>
       </c>
       <c r="B67">
-        <v>0.1128789746920276</v>
+        <v>0.1109035966086453</v>
       </c>
       <c r="C67">
-        <v>1202.238304314173</v>
+        <v>1200.729950288859</v>
       </c>
       <c r="D67">
-        <v>2205.168304314173</v>
+        <v>2203.659950288859</v>
       </c>
       <c r="E67">
         <v>205.7299999999998</v>
@@ -6718,45 +6718,45 @@
         <v>304.6</v>
       </c>
       <c r="M67">
-        <v>36.692695</v>
+        <v>24.646414</v>
       </c>
       <c r="N67">
-        <v>267.907305</v>
+        <v>279.953586</v>
       </c>
       <c r="O67">
-        <v>58.9396071</v>
+        <v>61.58978892</v>
       </c>
       <c r="P67">
-        <v>208.9676979</v>
+        <v>218.36379708</v>
       </c>
       <c r="Q67">
-        <v>275.5676979</v>
+        <v>284.96379708</v>
       </c>
       <c r="R67">
         <v>1.857142857142857</v>
       </c>
       <c r="S67">
-        <v>0.2841242134057932</v>
+        <v>0.2910828474532723</v>
       </c>
       <c r="T67">
         <v>2.803882093224795</v>
       </c>
       <c r="U67">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V67">
         <v>0.22</v>
       </c>
       <c r="W67">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y67">
-        <v>8.301379879564584</v>
+        <v>12.35879588811582</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -6767,13 +6767,13 @@
         <v>0.66</v>
       </c>
       <c r="B68">
-        <v>0.1126865899261905</v>
+        <v>0.1106962594878296</v>
       </c>
       <c r="C68">
-        <v>1185.315040196819</v>
+        <v>1183.934038695449</v>
       </c>
       <c r="D68">
-        <v>2209.547040196819</v>
+        <v>2208.16603869545</v>
       </c>
       <c r="E68">
         <v>227.0319999999999</v>
@@ -6800,45 +6800,45 @@
         <v>304.6</v>
       </c>
       <c r="M68">
-        <v>37.257198</v>
+        <v>25.0255896</v>
       </c>
       <c r="N68">
-        <v>267.342802</v>
+        <v>279.5744104</v>
       </c>
       <c r="O68">
-        <v>58.81541644</v>
+        <v>61.50637028800001</v>
       </c>
       <c r="P68">
-        <v>208.52738556</v>
+        <v>218.068040112</v>
       </c>
       <c r="Q68">
-        <v>275.12738556</v>
+        <v>284.668040112</v>
       </c>
       <c r="R68">
         <v>1.941176470588236</v>
       </c>
       <c r="S68">
-        <v>0.2913070291946779</v>
+        <v>0.2986259396700872</v>
       </c>
       <c r="T68">
         <v>2.878939682376945</v>
       </c>
       <c r="U68">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V68">
         <v>0.22</v>
       </c>
       <c r="W68">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y68">
-        <v>8.175601396540877</v>
+        <v>12.17154140496254</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -6849,13 +6849,13 @@
         <v>0.67</v>
       </c>
       <c r="B69">
-        <v>0.1124942051603533</v>
+        <v>0.110488922367014</v>
       </c>
       <c r="C69">
-        <v>1168.409200124186</v>
+        <v>1167.156593143074</v>
       </c>
       <c r="D69">
-        <v>2213.943200124186</v>
+        <v>2212.690593143074</v>
       </c>
       <c r="E69">
         <v>248.3339999999998</v>
@@ -6882,45 +6882,45 @@
         <v>304.6</v>
       </c>
       <c r="M69">
-        <v>37.821701</v>
+        <v>25.4047652</v>
       </c>
       <c r="N69">
-        <v>266.778299</v>
+        <v>279.1952348</v>
       </c>
       <c r="O69">
-        <v>58.69122578</v>
+        <v>61.42295165600001</v>
       </c>
       <c r="P69">
-        <v>208.08707322</v>
+        <v>217.772283144</v>
       </c>
       <c r="Q69">
-        <v>274.68707322</v>
+        <v>284.372283144</v>
       </c>
       <c r="R69">
         <v>2.030303030303031</v>
       </c>
       <c r="S69">
-        <v>0.2989251671525857</v>
+        <v>0.3066261889909515</v>
       </c>
       <c r="T69">
         <v>2.958546216326195</v>
       </c>
       <c r="U69">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V69">
         <v>0.22</v>
       </c>
       <c r="W69">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y69">
-        <v>8.053577495099969</v>
+        <v>11.98987660787355</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -6931,13 +6931,13 @@
         <v>0.68</v>
       </c>
       <c r="B70">
-        <v>0.1123018203945161</v>
+        <v>0.1102815852461983</v>
       </c>
       <c r="C70">
-        <v>1151.520888305315</v>
+        <v>1150.397727376109</v>
       </c>
       <c r="D70">
-        <v>2218.356888305315</v>
+        <v>2217.233727376109</v>
       </c>
       <c r="E70">
         <v>269.636</v>
@@ -6964,45 +6964,45 @@
         <v>304.6</v>
       </c>
       <c r="M70">
-        <v>38.38620400000001</v>
+        <v>25.7839408</v>
       </c>
       <c r="N70">
-        <v>266.213796</v>
+        <v>278.8160592</v>
       </c>
       <c r="O70">
-        <v>58.56703512</v>
+        <v>61.33953302400001</v>
       </c>
       <c r="P70">
-        <v>207.64676088</v>
+        <v>217.476526176</v>
       </c>
       <c r="Q70">
-        <v>274.24676088</v>
+        <v>284.076526176</v>
       </c>
       <c r="R70">
         <v>2.125</v>
       </c>
       <c r="S70">
-        <v>0.3070194387328629</v>
+        <v>0.3151264538943698</v>
       </c>
       <c r="T70">
         <v>3.043128158647273</v>
       </c>
       <c r="U70">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V70">
         <v>0.22</v>
       </c>
       <c r="W70">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y70">
-        <v>7.935142531936734</v>
+        <v>11.81355489305188</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -7013,13 +7013,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="B71">
-        <v>0.1121094356286789</v>
+        <v>0.1100742481253827</v>
       </c>
       <c r="C71">
-        <v>1134.650209781907</v>
+        <v>1133.65755607502</v>
       </c>
       <c r="D71">
-        <v>2222.788209781907</v>
+        <v>2221.79555607502</v>
       </c>
       <c r="E71">
         <v>290.9379999999999</v>
@@ -7046,45 +7046,45 @@
         <v>304.6</v>
       </c>
       <c r="M71">
-        <v>38.950707</v>
+        <v>26.1631164</v>
       </c>
       <c r="N71">
-        <v>265.649293</v>
+        <v>278.4368836</v>
       </c>
       <c r="O71">
-        <v>58.44284446</v>
+        <v>61.25611439200001</v>
       </c>
       <c r="P71">
-        <v>207.20644854</v>
+        <v>217.180769208</v>
       </c>
       <c r="Q71">
-        <v>273.80644854</v>
+        <v>283.780769208</v>
       </c>
       <c r="R71">
         <v>2.225806451612904</v>
       </c>
       <c r="S71">
-        <v>0.3156359213828353</v>
+        <v>0.3241751229851054</v>
       </c>
       <c r="T71">
         <v>3.133167000472937</v>
       </c>
       <c r="U71">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V71">
         <v>0.22</v>
       </c>
       <c r="W71">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y71">
-        <v>7.820140466256492</v>
+        <v>11.64234395257287</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -7095,13 +7095,13 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="B72">
-        <v>0.1125176508628417</v>
+        <v>0.109866911004567</v>
       </c>
       <c r="C72">
-        <v>1103.966509529105</v>
+        <v>1116.936194866011</v>
       </c>
       <c r="D72">
-        <v>2213.406509529105</v>
+        <v>2226.376194866011</v>
       </c>
       <c r="E72">
         <v>312.24</v>
@@ -7128,45 +7128,45 @@
         <v>304.6</v>
       </c>
       <c r="M72">
-        <v>41.155464</v>
+        <v>26.542292</v>
       </c>
       <c r="N72">
-        <v>263.444536</v>
+        <v>278.057708</v>
       </c>
       <c r="O72">
-        <v>57.95779792</v>
+        <v>61.17269576000001</v>
       </c>
       <c r="P72">
-        <v>205.48673808</v>
+        <v>216.88501224</v>
       </c>
       <c r="Q72">
-        <v>272.08673808</v>
+        <v>283.48501224</v>
       </c>
       <c r="R72">
         <v>2.333333333333334</v>
       </c>
       <c r="S72">
-        <v>0.3248268362094725</v>
+        <v>0.33382703668189</v>
       </c>
       <c r="T72">
         <v>3.229208431753644</v>
       </c>
       <c r="U72">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V72">
         <v>0.22</v>
       </c>
       <c r="W72">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y72">
-        <v>7.401204369849895</v>
+        <v>11.4760247532504</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -7177,13 +7177,13 @@
         <v>0.71</v>
       </c>
       <c r="B73">
-        <v>0.1123338460970046</v>
+        <v>0.1096595738837513</v>
       </c>
       <c r="C73">
-        <v>1086.87893464149</v>
+        <v>1100.233760330794</v>
       </c>
       <c r="D73">
-        <v>2217.62093464149</v>
+        <v>2230.975760330793</v>
       </c>
       <c r="E73">
         <v>333.5419999999997</v>
@@ -7210,45 +7210,45 @@
         <v>304.6</v>
       </c>
       <c r="M73">
-        <v>41.74339919999999</v>
+        <v>26.9214676</v>
       </c>
       <c r="N73">
-        <v>262.8566008</v>
+        <v>277.6785324000001</v>
       </c>
       <c r="O73">
-        <v>57.82845217600001</v>
+        <v>61.08927712800001</v>
       </c>
       <c r="P73">
-        <v>205.028148624</v>
+        <v>216.589255272</v>
       </c>
       <c r="Q73">
-        <v>271.628148624</v>
+        <v>283.189255272</v>
       </c>
       <c r="R73">
         <v>2.448275862068965</v>
       </c>
       <c r="S73">
-        <v>0.3346516072310503</v>
+        <v>0.3441445995991425</v>
       </c>
       <c r="T73">
         <v>3.331873410019228</v>
       </c>
       <c r="U73">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V73">
         <v>0.22</v>
       </c>
       <c r="W73">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y73">
-        <v>7.296962054781588</v>
+        <v>11.31439060179617</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -7259,13 +7259,13 @@
         <v>0.72</v>
       </c>
       <c r="B74">
-        <v>0.1121500413311674</v>
+        <v>0.1094522367629357</v>
       </c>
       <c r="C74">
-        <v>1069.80743927829</v>
+        <v>1083.55037001648</v>
       </c>
       <c r="D74">
-        <v>2221.85143927829</v>
+        <v>2235.59437001648</v>
       </c>
       <c r="E74">
         <v>354.8439999999998</v>
@@ -7292,45 +7292,45 @@
         <v>304.6</v>
       </c>
       <c r="M74">
-        <v>42.3313344</v>
+        <v>27.3006432</v>
       </c>
       <c r="N74">
-        <v>262.2686656</v>
+        <v>277.2993568</v>
       </c>
       <c r="O74">
-        <v>57.69910643200001</v>
+        <v>61.005858496</v>
       </c>
       <c r="P74">
-        <v>204.569559168</v>
+        <v>216.293498304</v>
       </c>
       <c r="Q74">
-        <v>271.169559168</v>
+        <v>282.893498304</v>
       </c>
       <c r="R74">
         <v>2.571428571428571</v>
       </c>
       <c r="S74">
-        <v>0.3451781476113122</v>
+        <v>0.3551991312961988</v>
       </c>
       <c r="T74">
         <v>3.441871601018068</v>
       </c>
       <c r="U74">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V74">
         <v>0.22</v>
       </c>
       <c r="W74">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y74">
-        <v>7.195615359576287</v>
+        <v>11.15724628788233</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -7341,13 +7341,13 @@
         <v>0.73</v>
       </c>
       <c r="B75">
-        <v>0.1119662365653302</v>
+        <v>0.10924489964212</v>
       </c>
       <c r="C75">
-        <v>1052.752115639013</v>
+        <v>1066.886142445596</v>
       </c>
       <c r="D75">
-        <v>2226.098115639013</v>
+        <v>2240.232142445596</v>
       </c>
       <c r="E75">
         <v>376.1459999999997</v>
@@ -7374,45 +7374,45 @@
         <v>304.6</v>
       </c>
       <c r="M75">
-        <v>42.91926959999999</v>
+        <v>27.6798188</v>
       </c>
       <c r="N75">
-        <v>261.6807304</v>
+        <v>276.9201812</v>
       </c>
       <c r="O75">
-        <v>57.569760688</v>
+        <v>60.922439864</v>
       </c>
       <c r="P75">
-        <v>204.110969712</v>
+        <v>215.997741336</v>
       </c>
       <c r="Q75">
-        <v>270.710969712</v>
+        <v>282.597741336</v>
       </c>
       <c r="R75">
         <v>2.703703703703703</v>
       </c>
       <c r="S75">
-        <v>0.3564844317234452</v>
+        <v>0.3670725171930371</v>
       </c>
       <c r="T75">
         <v>3.56001780616497</v>
       </c>
       <c r="U75">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V75">
         <v>0.22</v>
       </c>
       <c r="W75">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y75">
-        <v>7.097045286157434</v>
+        <v>11.00440729763737</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -7423,13 +7423,13 @@
         <v>0.74</v>
       </c>
       <c r="B76">
-        <v>0.111782431799493</v>
+        <v>0.1090375625213044</v>
       </c>
       <c r="C76">
-        <v>1035.713056629405</v>
+        <v>1050.241197126215</v>
       </c>
       <c r="D76">
-        <v>2230.361056629405</v>
+        <v>2244.889197126215</v>
       </c>
       <c r="E76">
         <v>397.4479999999999</v>
@@ -7456,45 +7456,45 @@
         <v>304.6</v>
       </c>
       <c r="M76">
-        <v>43.5072048</v>
+        <v>28.0589944</v>
       </c>
       <c r="N76">
-        <v>261.0927952</v>
+        <v>276.5410056</v>
       </c>
       <c r="O76">
-        <v>57.440414944</v>
+        <v>60.839021232</v>
       </c>
       <c r="P76">
-        <v>203.652380256</v>
+        <v>215.701984368</v>
       </c>
       <c r="Q76">
-        <v>270.252380256</v>
+        <v>282.301984368</v>
       </c>
       <c r="R76">
         <v>2.846153846153846</v>
       </c>
       <c r="S76">
-        <v>0.3686604299980502</v>
+        <v>0.3798592404665552</v>
       </c>
       <c r="T76">
         <v>3.687252180938557</v>
       </c>
       <c r="U76">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V76">
         <v>0.22</v>
       </c>
       <c r="W76">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y76">
-        <v>7.001139268776927</v>
+        <v>10.85569909091254</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -7505,13 +7505,13 @@
         <v>0.75</v>
       </c>
       <c r="B77">
-        <v>0.1115986270336559</v>
+        <v>0.1088302254004887</v>
       </c>
       <c r="C77">
-        <v>1018.690355868236</v>
+        <v>1033.61565456223</v>
       </c>
       <c r="D77">
-        <v>2234.640355868236</v>
+        <v>2249.56565456223</v>
       </c>
       <c r="E77">
         <v>418.7499999999998</v>
@@ -7538,45 +7538,45 @@
         <v>304.6</v>
       </c>
       <c r="M77">
-        <v>44.09513999999999</v>
+        <v>28.43817</v>
       </c>
       <c r="N77">
-        <v>260.50486</v>
+        <v>276.16183</v>
       </c>
       <c r="O77">
-        <v>57.3110692</v>
+        <v>60.7556026</v>
       </c>
       <c r="P77">
-        <v>203.1937908</v>
+        <v>215.4062274</v>
       </c>
       <c r="Q77">
-        <v>269.7937908</v>
+        <v>282.0062273999999</v>
       </c>
       <c r="R77">
         <v>3</v>
       </c>
       <c r="S77">
-        <v>0.3818105081346235</v>
+        <v>0.3936689016019548</v>
       </c>
       <c r="T77">
         <v>3.824665305694032</v>
       </c>
       <c r="U77">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V77">
         <v>0.22</v>
       </c>
       <c r="W77">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y77">
-        <v>6.907790745193235</v>
+        <v>10.71095643636704</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -7587,13 +7587,13 @@
         <v>0.76</v>
       </c>
       <c r="B78">
-        <v>0.1114148222678187</v>
+        <v>0.109927048279673</v>
       </c>
       <c r="C78">
-        <v>1001.684107694141</v>
+        <v>987.7936560098169</v>
       </c>
       <c r="D78">
-        <v>2238.936107694141</v>
+        <v>2225.045656009817</v>
       </c>
       <c r="E78">
         <v>440.0519999999997</v>
@@ -7620,45 +7620,45 @@
         <v>304.6</v>
       </c>
       <c r="M78">
-        <v>44.68307519999999</v>
+        <v>32.37903999999999</v>
       </c>
       <c r="N78">
-        <v>259.9169248000001</v>
+        <v>272.22096</v>
       </c>
       <c r="O78">
-        <v>57.18172345600001</v>
+        <v>59.88861120000001</v>
       </c>
       <c r="P78">
-        <v>202.735201344</v>
+        <v>212.3323488</v>
       </c>
       <c r="Q78">
-        <v>269.335201344</v>
+        <v>278.9323488</v>
       </c>
       <c r="R78">
         <v>3.166666666666667</v>
       </c>
       <c r="S78">
-        <v>0.3960564261159112</v>
+        <v>0.408629367831971</v>
       </c>
       <c r="T78">
         <v>3.973529524179129</v>
       </c>
       <c r="U78">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V78">
         <v>0.22</v>
       </c>
       <c r="W78">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y78">
-        <v>6.816898761703852</v>
+        <v>9.407320291151317</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -7669,13 +7669,13 @@
         <v>0.77</v>
       </c>
       <c r="B79">
-        <v>0.1112310175019815</v>
+        <v>0.1097368711588574</v>
       </c>
       <c r="C79">
-        <v>984.6944071725638</v>
+        <v>970.7047778609949</v>
       </c>
       <c r="D79">
-        <v>2243.248407172564</v>
+        <v>2229.258777860995</v>
       </c>
       <c r="E79">
         <v>461.3539999999998</v>
@@ -7702,45 +7702,45 @@
         <v>304.6</v>
       </c>
       <c r="M79">
-        <v>45.27101039999999</v>
+        <v>32.80507999999999</v>
       </c>
       <c r="N79">
-        <v>259.3289896</v>
+        <v>271.79492</v>
       </c>
       <c r="O79">
-        <v>57.052377712</v>
+        <v>59.79488240000001</v>
       </c>
       <c r="P79">
-        <v>202.276611888</v>
+        <v>212.0000376</v>
       </c>
       <c r="Q79">
-        <v>268.876611888</v>
+        <v>278.6000376</v>
       </c>
       <c r="R79">
         <v>3.347826086956522</v>
       </c>
       <c r="S79">
-        <v>0.4115411195738327</v>
+        <v>0.4248907441689452</v>
       </c>
       <c r="T79">
         <v>4.135338457315104</v>
       </c>
       <c r="U79">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V79">
         <v>0.22</v>
       </c>
       <c r="W79">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y79">
-        <v>6.72836760895445</v>
+        <v>9.285147300357144</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -7751,13 +7751,13 @@
         <v>0.78</v>
       </c>
       <c r="B80">
-        <v>0.1110472127361443</v>
+        <v>0.1095466940380417</v>
       </c>
       <c r="C80">
-        <v>967.7213501027597</v>
+        <v>953.6318850649266</v>
       </c>
       <c r="D80">
-        <v>2247.57735010276</v>
+        <v>2233.487885064927</v>
       </c>
       <c r="E80">
         <v>482.6559999999997</v>
@@ -7784,45 +7784,45 @@
         <v>304.6</v>
       </c>
       <c r="M80">
-        <v>45.85894559999999</v>
+        <v>33.23111999999999</v>
       </c>
       <c r="N80">
-        <v>258.7410544000001</v>
+        <v>271.36888</v>
       </c>
       <c r="O80">
-        <v>56.92303196800001</v>
+        <v>59.70115360000001</v>
       </c>
       <c r="P80">
-        <v>201.818022432</v>
+        <v>211.6677264</v>
       </c>
       <c r="Q80">
-        <v>268.418022432</v>
+        <v>278.2677264</v>
       </c>
       <c r="R80">
         <v>3.545454545454546</v>
       </c>
       <c r="S80">
-        <v>0.4284335124370198</v>
+        <v>0.4426304274456442</v>
       </c>
       <c r="T80">
         <v>4.311857293463441</v>
       </c>
       <c r="U80">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V80">
         <v>0.22</v>
       </c>
       <c r="W80">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y80">
-        <v>6.642106485762728</v>
+        <v>9.166106950352566</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -7833,13 +7833,13 @@
         <v>0.79</v>
       </c>
       <c r="B81">
-        <v>0.1108634079703072</v>
+        <v>0.1093565169172261</v>
       </c>
       <c r="C81">
-        <v>950.765033024895</v>
+        <v>936.5750687715479</v>
       </c>
       <c r="D81">
-        <v>2251.923033024895</v>
+        <v>2237.733068771548</v>
       </c>
       <c r="E81">
         <v>503.9579999999999</v>
@@ -7866,45 +7866,45 @@
         <v>304.6</v>
       </c>
       <c r="M81">
-        <v>46.4468808</v>
+        <v>33.65715999999999</v>
       </c>
       <c r="N81">
-        <v>258.1531192</v>
+        <v>270.94284</v>
       </c>
       <c r="O81">
-        <v>56.79368622400001</v>
+        <v>59.60742480000001</v>
       </c>
       <c r="P81">
-        <v>201.3594329760001</v>
+        <v>211.3354152</v>
       </c>
       <c r="Q81">
-        <v>267.959432976</v>
+        <v>277.9354152</v>
       </c>
       <c r="R81">
         <v>3.761904761904763</v>
       </c>
       <c r="S81">
-        <v>0.4469347046205104</v>
+        <v>0.4620596043677433</v>
       </c>
       <c r="T81">
         <v>4.505187447340191</v>
       </c>
       <c r="U81">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V81">
         <v>0.22</v>
       </c>
       <c r="W81">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y81">
-        <v>6.558029188474591</v>
+        <v>9.050080280094937</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -7915,13 +7915,13 @@
         <v>0.8</v>
       </c>
       <c r="B82">
-        <v>0.11067960320447</v>
+        <v>0.1091663397964104</v>
       </c>
       <c r="C82">
-        <v>933.8255532272246</v>
+        <v>919.5344208251081</v>
       </c>
       <c r="D82">
-        <v>2256.285553227225</v>
+        <v>2241.994420825108</v>
       </c>
       <c r="E82">
         <v>525.2599999999998</v>
@@ -7948,45 +7948,45 @@
         <v>304.6</v>
       </c>
       <c r="M82">
-        <v>47.03481599999999</v>
+        <v>34.08319999999999</v>
       </c>
       <c r="N82">
-        <v>257.565184</v>
+        <v>270.5168</v>
       </c>
       <c r="O82">
-        <v>56.66434048000001</v>
+        <v>59.51369600000001</v>
       </c>
       <c r="P82">
-        <v>200.90084352</v>
+        <v>211.003104</v>
       </c>
       <c r="Q82">
-        <v>267.50084352</v>
+        <v>277.603104</v>
       </c>
       <c r="R82">
         <v>4.000000000000001</v>
       </c>
       <c r="S82">
-        <v>0.46728601602235</v>
+        <v>0.4834316989820522</v>
       </c>
       <c r="T82">
         <v>4.717850616604616</v>
       </c>
       <c r="U82">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V82">
         <v>0.22</v>
       </c>
       <c r="W82">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y82">
-        <v>6.476053823618659</v>
+        <v>8.936954276593751</v>
       </c>
       <c r="Z82">
         <v>0</v>
@@ -7997,13 +7997,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B83">
-        <v>0.1104957984386328</v>
+        <v>0.1089761626755947</v>
       </c>
       <c r="C83">
-        <v>916.9030087533479</v>
+        <v>902.5100337707927</v>
       </c>
       <c r="D83">
-        <v>2260.665008753348</v>
+        <v>2246.272033770793</v>
       </c>
       <c r="E83">
         <v>546.5619999999999</v>
@@ -8030,45 +8030,45 @@
         <v>304.6</v>
       </c>
       <c r="M83">
-        <v>47.6227512</v>
+        <v>34.50923999999999</v>
       </c>
       <c r="N83">
-        <v>256.9772488</v>
+        <v>270.09076</v>
       </c>
       <c r="O83">
-        <v>56.53499473600001</v>
+        <v>59.41996720000001</v>
       </c>
       <c r="P83">
-        <v>200.442254064</v>
+        <v>210.6707928</v>
       </c>
       <c r="Q83">
-        <v>267.042254064</v>
+        <v>277.2707928</v>
       </c>
       <c r="R83">
         <v>4.263157894736843</v>
       </c>
       <c r="S83">
-        <v>0.4897795707296465</v>
+        <v>0.5070534877662883</v>
       </c>
       <c r="T83">
         <v>4.952899382633716</v>
       </c>
       <c r="U83">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V83">
         <v>0.22</v>
       </c>
       <c r="W83">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y83">
-        <v>6.396102541845589</v>
+        <v>8.826621507746914</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -8079,13 +8079,13 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B84">
-        <v>0.1112713936727956</v>
+        <v>0.1087859855547791</v>
       </c>
       <c r="C84">
-        <v>877.2357064426167</v>
+        <v>885.5020008614244</v>
       </c>
       <c r="D84">
-        <v>2242.299706442617</v>
+        <v>2250.566000861425</v>
       </c>
       <c r="E84">
         <v>567.8639999999998</v>
@@ -8112,45 +8112,45 @@
         <v>304.6</v>
       </c>
       <c r="M84">
-        <v>50.8308324</v>
+        <v>34.93527999999999</v>
       </c>
       <c r="N84">
-        <v>253.7691676</v>
+        <v>269.66472</v>
       </c>
       <c r="O84">
-        <v>55.82921687200001</v>
+        <v>59.32623840000001</v>
       </c>
       <c r="P84">
-        <v>197.939950728</v>
+        <v>210.3384816</v>
       </c>
       <c r="Q84">
-        <v>264.539950728</v>
+        <v>276.9384816</v>
       </c>
       <c r="R84">
         <v>4.555555555555557</v>
       </c>
       <c r="S84">
-        <v>0.5147724092933091</v>
+        <v>0.5332999197487729</v>
       </c>
       <c r="T84">
         <v>5.214064678221606</v>
       </c>
       <c r="U84">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V84">
         <v>0.22</v>
       </c>
       <c r="W84">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y84">
-        <v>5.992425967039644</v>
+        <v>8.718979782042684</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -8161,13 +8161,13 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B85">
-        <v>0.1110992889069585</v>
+        <v>0.1085958084339634</v>
       </c>
       <c r="C85">
-        <v>859.9831644222115</v>
+        <v>868.5104160642379</v>
       </c>
       <c r="D85">
-        <v>2246.349164422212</v>
+        <v>2254.876416064238</v>
       </c>
       <c r="E85">
         <v>589.1659999999999</v>
@@ -8194,45 +8194,45 @@
         <v>304.6</v>
       </c>
       <c r="M85">
-        <v>51.4507206</v>
+        <v>35.36131999999999</v>
       </c>
       <c r="N85">
-        <v>253.1492794</v>
+        <v>269.23868</v>
       </c>
       <c r="O85">
-        <v>55.692841468</v>
+        <v>59.23250960000001</v>
       </c>
       <c r="P85">
-        <v>197.456437932</v>
+        <v>210.0061704</v>
       </c>
       <c r="Q85">
-        <v>264.056437932</v>
+        <v>276.6061704</v>
       </c>
       <c r="R85">
         <v>4.882352941176473</v>
       </c>
       <c r="S85">
-        <v>0.5427055818056382</v>
+        <v>0.5626341672586086</v>
       </c>
       <c r="T85">
         <v>5.505955302702189</v>
       </c>
       <c r="U85">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V85">
         <v>0.22</v>
       </c>
       <c r="W85">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y85">
-        <v>5.920228063822297</v>
+        <v>8.613931832861446</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -8243,13 +8243,13 @@
         <v>0.84</v>
       </c>
       <c r="B86">
-        <v>0.1109271841411213</v>
+        <v>0.1084056313131478</v>
       </c>
       <c r="C86">
-        <v>842.7452750171171</v>
+        <v>851.5353740677367</v>
       </c>
       <c r="D86">
-        <v>2250.413275017117</v>
+        <v>2259.203374067737</v>
       </c>
       <c r="E86">
         <v>610.4679999999996</v>
@@ -8276,45 +8276,45 @@
         <v>304.6</v>
       </c>
       <c r="M86">
-        <v>52.0706088</v>
+        <v>35.78735999999999</v>
       </c>
       <c r="N86">
-        <v>252.5293912</v>
+        <v>268.81264</v>
       </c>
       <c r="O86">
-        <v>55.55646606400001</v>
+        <v>59.13878080000001</v>
       </c>
       <c r="P86">
-        <v>196.972925136</v>
+        <v>209.6738592</v>
       </c>
       <c r="Q86">
-        <v>263.572925136</v>
+        <v>276.2738592</v>
       </c>
       <c r="R86">
         <v>5.249999999999999</v>
       </c>
       <c r="S86">
-        <v>0.574130400882008</v>
+        <v>0.5956351957071736</v>
       </c>
       <c r="T86">
         <v>5.834332255242842</v>
       </c>
       <c r="U86">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V86">
         <v>0.22</v>
       </c>
       <c r="W86">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y86">
-        <v>5.849749158300605</v>
+        <v>8.511385025327382</v>
       </c>
       <c r="Z86">
         <v>0</v>
@@ -8325,13 +8325,13 @@
         <v>0.85</v>
       </c>
       <c r="B87">
-        <v>0.1107550793752841</v>
+        <v>0.1082154541923321</v>
       </c>
       <c r="C87">
-        <v>825.5221179003186</v>
+        <v>834.5769702886244</v>
       </c>
       <c r="D87">
-        <v>2254.492117900319</v>
+        <v>2263.546970288624</v>
       </c>
       <c r="E87">
         <v>631.7699999999998</v>
@@ -8358,45 +8358,45 @@
         <v>304.6</v>
       </c>
       <c r="M87">
-        <v>52.690497</v>
+        <v>36.21339999999999</v>
       </c>
       <c r="N87">
-        <v>251.909503</v>
+        <v>268.3866</v>
       </c>
       <c r="O87">
-        <v>55.42009066000001</v>
+        <v>59.04505200000001</v>
       </c>
       <c r="P87">
-        <v>196.48941234</v>
+        <v>209.341548</v>
       </c>
       <c r="Q87">
-        <v>263.08941234</v>
+        <v>275.941548</v>
       </c>
       <c r="R87">
         <v>5.666666666666666</v>
       </c>
       <c r="S87">
-        <v>0.6097451958352273</v>
+        <v>0.6330363612822141</v>
       </c>
       <c r="T87">
         <v>6.206492801455584</v>
       </c>
       <c r="U87">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V87">
         <v>0.22</v>
       </c>
       <c r="W87">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y87">
-        <v>5.780928579967656</v>
+        <v>8.411251083852942</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -8407,13 +8407,13 @@
         <v>0.86</v>
       </c>
       <c r="B88">
-        <v>0.1105829746094469</v>
+        <v>0.1080252770715165</v>
       </c>
       <c r="C88">
-        <v>808.3137733234762</v>
+        <v>817.6353008788205</v>
       </c>
       <c r="D88">
-        <v>2258.585773323476</v>
+        <v>2267.90730087882</v>
       </c>
       <c r="E88">
         <v>653.0719999999997</v>
@@ -8440,45 +8440,45 @@
         <v>304.6</v>
       </c>
       <c r="M88">
-        <v>53.31038519999999</v>
+        <v>36.63943999999999</v>
       </c>
       <c r="N88">
-        <v>251.2896148</v>
+        <v>267.96056</v>
       </c>
       <c r="O88">
-        <v>55.28371525600001</v>
+        <v>58.95132320000001</v>
       </c>
       <c r="P88">
-        <v>196.005899544</v>
+        <v>209.0092368</v>
       </c>
       <c r="Q88">
-        <v>262.605899544</v>
+        <v>275.6092368</v>
       </c>
       <c r="R88">
         <v>6.142857142857142</v>
       </c>
       <c r="S88">
-        <v>0.6504478186389065</v>
+        <v>0.6757805505108319</v>
       </c>
       <c r="T88">
         <v>6.631819139984433</v>
       </c>
       <c r="U88">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V88">
         <v>0.22</v>
       </c>
       <c r="W88">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y88">
-        <v>5.713708480200591</v>
+        <v>8.313445838691862</v>
       </c>
       <c r="Z88">
         <v>0</v>
@@ -8489,13 +8489,13 @@
         <v>0.87</v>
       </c>
       <c r="B89">
-        <v>0.1104108698436097</v>
+        <v>0.1078350999507008</v>
       </c>
       <c r="C89">
-        <v>791.1203221221876</v>
+        <v>800.7104627325534</v>
       </c>
       <c r="D89">
-        <v>2262.694322122188</v>
+        <v>2272.284462732553</v>
       </c>
       <c r="E89">
         <v>674.3739999999998</v>
@@ -8522,45 +8522,45 @@
         <v>304.6</v>
       </c>
       <c r="M89">
-        <v>53.9302734</v>
+        <v>37.06547999999999</v>
       </c>
       <c r="N89">
-        <v>250.6697266</v>
+        <v>267.53452</v>
       </c>
       <c r="O89">
-        <v>55.147339852</v>
+        <v>58.85759440000001</v>
       </c>
       <c r="P89">
-        <v>195.522386748</v>
+        <v>208.6769256</v>
       </c>
       <c r="Q89">
-        <v>262.122386748</v>
+        <v>275.2769256</v>
       </c>
       <c r="R89">
         <v>6.692307692307692</v>
       </c>
       <c r="S89">
-        <v>0.6974123834123827</v>
+        <v>0.7251007688515446</v>
       </c>
       <c r="T89">
         <v>7.122580299825413</v>
       </c>
       <c r="U89">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V89">
         <v>0.22</v>
       </c>
       <c r="W89">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y89">
-        <v>5.648033670083342</v>
+        <v>8.217888989971264</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -8571,13 +8571,13 @@
         <v>0.88</v>
       </c>
       <c r="B90">
-        <v>0.1102387650777726</v>
+        <v>0.1076449228298851</v>
       </c>
       <c r="C90">
-        <v>773.9418457213076</v>
+        <v>783.8025534935384</v>
       </c>
       <c r="D90">
-        <v>2266.817845721308</v>
+        <v>2276.678553493538</v>
       </c>
       <c r="E90">
         <v>695.6759999999997</v>
@@ -8604,45 +8604,45 @@
         <v>304.6</v>
       </c>
       <c r="M90">
-        <v>54.5501616</v>
+        <v>37.49151999999999</v>
       </c>
       <c r="N90">
-        <v>250.0498384</v>
+        <v>267.10848</v>
       </c>
       <c r="O90">
-        <v>55.010964448</v>
+        <v>58.76386560000001</v>
       </c>
       <c r="P90">
-        <v>195.038873952</v>
+        <v>208.3446144</v>
       </c>
       <c r="Q90">
-        <v>261.638873952</v>
+        <v>274.9446144</v>
       </c>
       <c r="R90">
         <v>7.333333333333334</v>
       </c>
       <c r="S90">
-        <v>0.7522043756481048</v>
+        <v>0.7826410235823762</v>
       </c>
       <c r="T90">
         <v>7.695134986306556</v>
       </c>
       <c r="U90">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V90">
         <v>0.22</v>
       </c>
       <c r="W90">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y90">
-        <v>5.583851469286941</v>
+        <v>8.124503887812502</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -8653,13 +8653,13 @@
         <v>0.89</v>
       </c>
       <c r="B91">
-        <v>0.1100666603119354</v>
+        <v>0.1074547457090695</v>
       </c>
       <c r="C91">
-        <v>756.7784261403278</v>
+        <v>766.9116715622411</v>
       </c>
       <c r="D91">
-        <v>2270.956426140328</v>
+        <v>2281.089671562241</v>
       </c>
       <c r="E91">
         <v>716.9779999999998</v>
@@ -8686,45 +8686,45 @@
         <v>304.6</v>
       </c>
       <c r="M91">
-        <v>55.1700498</v>
+        <v>37.91755999999999</v>
       </c>
       <c r="N91">
-        <v>249.4299502</v>
+        <v>266.68244</v>
       </c>
       <c r="O91">
-        <v>54.874589044</v>
+        <v>58.67013680000001</v>
       </c>
       <c r="P91">
-        <v>194.555361156</v>
+        <v>208.0123032</v>
       </c>
       <c r="Q91">
-        <v>261.155361156</v>
+        <v>274.6123032</v>
       </c>
       <c r="R91">
         <v>8.090909090909092</v>
       </c>
       <c r="S91">
-        <v>0.8169585482903219</v>
+        <v>0.8506431428097226</v>
       </c>
       <c r="T91">
         <v>8.371790524875179</v>
       </c>
       <c r="U91">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V91">
         <v>0.22</v>
       </c>
       <c r="W91">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y91">
-        <v>5.521111565137648</v>
+        <v>8.033217327275281</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -8735,13 +8735,13 @@
         <v>0.9</v>
       </c>
       <c r="B92">
-        <v>0.1098945555460982</v>
+        <v>0.1072645685882538</v>
       </c>
       <c r="C92">
-        <v>739.6301459988149</v>
+        <v>750.0379161032174</v>
       </c>
       <c r="D92">
-        <v>2275.110145998815</v>
+        <v>2285.517916103217</v>
       </c>
       <c r="E92">
         <v>738.2799999999997</v>
@@ -8768,45 +8768,45 @@
         <v>304.6</v>
       </c>
       <c r="M92">
-        <v>55.789938</v>
+        <v>38.34359999999999</v>
       </c>
       <c r="N92">
-        <v>248.810062</v>
+        <v>266.2564</v>
       </c>
       <c r="O92">
-        <v>54.73821364000001</v>
+        <v>58.57640800000001</v>
       </c>
       <c r="P92">
-        <v>194.07184836</v>
+        <v>207.679992</v>
       </c>
       <c r="Q92">
-        <v>260.67184836</v>
+        <v>274.279992</v>
       </c>
       <c r="R92">
         <v>9.000000000000002</v>
       </c>
       <c r="S92">
-        <v>0.8946635554609823</v>
+        <v>0.9322456858825383</v>
       </c>
       <c r="T92">
         <v>9.183777171157526</v>
       </c>
       <c r="U92">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V92">
         <v>0.22</v>
       </c>
       <c r="W92">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y92">
-        <v>5.459765881080564</v>
+        <v>7.943959356972223</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -8817,13 +8817,13 @@
         <v>0.91</v>
       </c>
       <c r="B93">
-        <v>0.109722450780261</v>
+        <v>0.1078551714674382</v>
       </c>
       <c r="C93">
-        <v>722.4970885219072</v>
+        <v>715.0396945698403</v>
       </c>
       <c r="D93">
-        <v>2279.279088521907</v>
+        <v>2271.82169456984</v>
       </c>
       <c r="E93">
         <v>759.5819999999999</v>
@@ -8850,45 +8850,45 @@
         <v>304.6</v>
       </c>
       <c r="M93">
-        <v>56.4098262</v>
+        <v>40.9019702</v>
       </c>
       <c r="N93">
-        <v>248.1901738</v>
+        <v>263.6980298</v>
       </c>
       <c r="O93">
-        <v>54.60183823600001</v>
+        <v>58.01356655600001</v>
       </c>
       <c r="P93">
-        <v>193.588335564</v>
+        <v>205.684463244</v>
       </c>
       <c r="Q93">
-        <v>260.188335564</v>
+        <v>272.284463244</v>
       </c>
       <c r="R93">
         <v>10.11111111111111</v>
       </c>
       <c r="S93">
-        <v>0.9896363420029008</v>
+        <v>1.03198212741598</v>
       </c>
       <c r="T93">
         <v>10.17620529439151</v>
       </c>
       <c r="U93">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V93">
         <v>0.22</v>
       </c>
       <c r="W93">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y93">
-        <v>5.399768453815942</v>
+        <v>7.447074028722461</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -8899,13 +8899,13 @@
         <v>0.92</v>
       </c>
       <c r="B94">
-        <v>0.1095503460144239</v>
+        <v>0.1076735743466225</v>
       </c>
       <c r="C94">
-        <v>705.3793375458765</v>
+        <v>697.9314659304985</v>
       </c>
       <c r="D94">
-        <v>2283.463337545877</v>
+        <v>2276.015465930499</v>
       </c>
       <c r="E94">
         <v>780.8839999999998</v>
@@ -8932,45 +8932,45 @@
         <v>304.6</v>
       </c>
       <c r="M94">
-        <v>57.0297144</v>
+        <v>41.3514424</v>
       </c>
       <c r="N94">
-        <v>247.5702856</v>
+        <v>263.2485576</v>
       </c>
       <c r="O94">
-        <v>54.46546283200001</v>
+        <v>57.914682672</v>
       </c>
       <c r="P94">
-        <v>193.104822768</v>
+        <v>205.333874928</v>
       </c>
       <c r="Q94">
-        <v>259.704822768</v>
+        <v>271.933874928</v>
       </c>
       <c r="R94">
         <v>11.50000000000001</v>
       </c>
       <c r="S94">
-        <v>1.108352325180299</v>
+        <v>1.156652679332782</v>
       </c>
       <c r="T94">
         <v>11.41674044843399</v>
       </c>
       <c r="U94">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V94">
         <v>0.22</v>
       </c>
       <c r="W94">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y94">
-        <v>5.341075318448378</v>
+        <v>7.366127571888521</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -8981,13 +8981,13 @@
         <v>0.93</v>
       </c>
       <c r="B95">
-        <v>0.1093782412485867</v>
+        <v>0.1074919772258068</v>
       </c>
       <c r="C95">
-        <v>688.2769775237441</v>
+        <v>680.8387492876757</v>
       </c>
       <c r="D95">
-        <v>2287.662977523744</v>
+        <v>2280.224749287676</v>
       </c>
       <c r="E95">
         <v>802.1859999999999</v>
@@ -9014,45 +9014,45 @@
         <v>304.6</v>
       </c>
       <c r="M95">
-        <v>57.6496026</v>
+        <v>41.8009146</v>
       </c>
       <c r="N95">
-        <v>246.9503974</v>
+        <v>262.7990854</v>
       </c>
       <c r="O95">
-        <v>54.329087428</v>
+        <v>57.815798788</v>
       </c>
       <c r="P95">
-        <v>192.621309972</v>
+        <v>204.983286612</v>
       </c>
       <c r="Q95">
-        <v>259.221309972</v>
+        <v>271.583286612</v>
       </c>
       <c r="R95">
         <v>13.2857142857143</v>
       </c>
       <c r="S95">
-        <v>1.260987160694096</v>
+        <v>1.316943388940099</v>
       </c>
       <c r="T95">
         <v>13.01171421791717</v>
       </c>
       <c r="U95">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V95">
         <v>0.22</v>
       </c>
       <c r="W95">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y95">
-        <v>5.283644401045707</v>
+        <v>7.286921899072516</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -9063,13 +9063,13 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="B96">
-        <v>0.1092061364827495</v>
+        <v>0.1073103801049912</v>
       </c>
       <c r="C96">
-        <v>671.1900935309654</v>
+        <v>663.7616308649094</v>
       </c>
       <c r="D96">
-        <v>2291.878093530966</v>
+        <v>2284.44963086491</v>
       </c>
       <c r="E96">
         <v>823.4879999999998</v>
@@ -9096,45 +9096,45 @@
         <v>304.6</v>
       </c>
       <c r="M96">
-        <v>58.2694908</v>
+        <v>42.2503868</v>
       </c>
       <c r="N96">
-        <v>246.3305092</v>
+        <v>262.3496132</v>
       </c>
       <c r="O96">
-        <v>54.192712024</v>
+        <v>57.71691490400001</v>
       </c>
       <c r="P96">
-        <v>192.137797176</v>
+        <v>204.632698296</v>
       </c>
       <c r="Q96">
-        <v>258.737797176</v>
+        <v>271.232698296</v>
       </c>
       <c r="R96">
         <v>15.66666666666668</v>
       </c>
       <c r="S96">
-        <v>1.464500274712493</v>
+        <v>1.530664335083188</v>
       </c>
       <c r="T96">
         <v>15.13834591056142</v>
       </c>
       <c r="U96">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V96">
         <v>0.22</v>
       </c>
       <c r="W96">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y96">
-        <v>5.227435418055859</v>
+        <v>7.209401453337701</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -9145,13 +9145,13 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="B97">
-        <v>0.1090340317169123</v>
+        <v>0.1071287829841755</v>
       </c>
       <c r="C97">
-        <v>654.1187712711726</v>
+        <v>646.7001975259559</v>
       </c>
       <c r="D97">
-        <v>2296.108771271173</v>
+        <v>2288.690197525956</v>
       </c>
       <c r="E97">
         <v>844.79</v>
@@ -9178,45 +9178,45 @@
         <v>304.6</v>
       </c>
       <c r="M97">
-        <v>58.88937900000001</v>
+        <v>42.699859</v>
       </c>
       <c r="N97">
-        <v>245.710621</v>
+        <v>261.900141</v>
       </c>
       <c r="O97">
-        <v>54.05633662</v>
+        <v>57.61803102</v>
       </c>
       <c r="P97">
-        <v>191.65428438</v>
+        <v>204.28210998</v>
       </c>
       <c r="Q97">
-        <v>258.2542843799999</v>
+        <v>270.88210998</v>
       </c>
       <c r="R97">
         <v>19.00000000000003</v>
       </c>
       <c r="S97">
-        <v>1.749418634338249</v>
+        <v>1.829873659683513</v>
       </c>
       <c r="T97">
         <v>18.11563028026337</v>
       </c>
       <c r="U97">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V97">
         <v>0.22</v>
       </c>
       <c r="W97">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y97">
-        <v>5.172409782076323</v>
+        <v>7.133513016986777</v>
       </c>
       <c r="Z97">
         <v>0</v>
@@ -9227,13 +9227,13 @@
         <v>0.96</v>
       </c>
       <c r="B98">
-        <v>0.1088619269510752</v>
+        <v>0.1069471858633599</v>
       </c>
       <c r="C98">
-        <v>637.0630970819848</v>
+        <v>629.654536780743</v>
       </c>
       <c r="D98">
-        <v>2300.355097081985</v>
+        <v>2292.946536780743</v>
       </c>
       <c r="E98">
         <v>866.0919999999996</v>
@@ -9260,45 +9260,45 @@
         <v>304.6</v>
       </c>
       <c r="M98">
-        <v>59.5092672</v>
+        <v>43.1493312</v>
       </c>
       <c r="N98">
-        <v>245.0907328</v>
+        <v>261.4506688</v>
       </c>
       <c r="O98">
-        <v>53.919961216</v>
+        <v>57.519147136</v>
       </c>
       <c r="P98">
-        <v>191.170771584</v>
+        <v>203.931521664</v>
       </c>
       <c r="Q98">
-        <v>257.770771584</v>
+        <v>270.531521664</v>
       </c>
       <c r="R98">
         <v>23.99999999999998</v>
       </c>
       <c r="S98">
-        <v>2.176796173776877</v>
+        <v>2.278687646583995</v>
       </c>
       <c r="T98">
         <v>22.58155683481624</v>
       </c>
       <c r="U98">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V98">
         <v>0.22</v>
       </c>
       <c r="W98">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y98">
-        <v>5.118530513513028</v>
+        <v>7.059205589726499</v>
       </c>
       <c r="Z98">
         <v>0</v>
@@ -9309,13 +9309,13 @@
         <v>0.97</v>
       </c>
       <c r="B99">
-        <v>0.108689822185238</v>
+        <v>0.1067655887425442</v>
       </c>
       <c r="C99">
-        <v>620.0231579408828</v>
+        <v>612.6247367913907</v>
       </c>
       <c r="D99">
-        <v>2304.617157940883</v>
+        <v>2297.218736791391</v>
       </c>
       <c r="E99">
         <v>887.3939999999998</v>
@@ -9342,45 +9342,45 @@
         <v>304.6</v>
       </c>
       <c r="M99">
-        <v>60.12915539999999</v>
+        <v>43.5988034</v>
       </c>
       <c r="N99">
-        <v>244.4708446</v>
+        <v>261.0011966</v>
       </c>
       <c r="O99">
-        <v>53.78358581200001</v>
+        <v>57.42026325200001</v>
       </c>
       <c r="P99">
-        <v>190.687258788</v>
+        <v>203.580933348</v>
       </c>
       <c r="Q99">
-        <v>257.287258788</v>
+        <v>270.1809333479999</v>
       </c>
       <c r="R99">
         <v>32.33333333333331</v>
       </c>
       <c r="S99">
-        <v>2.889092072841263</v>
+        <v>3.026710958084805</v>
       </c>
       <c r="T99">
         <v>30.02476775907109</v>
       </c>
       <c r="U99">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V99">
         <v>0.22</v>
       </c>
       <c r="W99">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y99">
-        <v>5.065762157703616</v>
+        <v>6.986430274368494</v>
       </c>
       <c r="Z99">
         <v>0</v>
@@ -9391,13 +9391,13 @@
         <v>0.98</v>
       </c>
       <c r="B100">
-        <v>0.1085177174194008</v>
+        <v>0.1065839916217285</v>
       </c>
       <c r="C100">
-        <v>602.9990414711428</v>
+        <v>595.6108863782947</v>
       </c>
       <c r="D100">
-        <v>2308.895041471143</v>
+        <v>2301.506886378295</v>
       </c>
       <c r="E100">
         <v>908.6959999999999</v>
@@ -9424,45 +9424,45 @@
         <v>304.6</v>
       </c>
       <c r="M100">
-        <v>60.7490436</v>
+        <v>44.0482756</v>
       </c>
       <c r="N100">
-        <v>243.8509564</v>
+        <v>260.5517244</v>
       </c>
       <c r="O100">
-        <v>53.64721040800001</v>
+        <v>57.321379368</v>
       </c>
       <c r="P100">
-        <v>190.203745992</v>
+        <v>203.230345032</v>
       </c>
       <c r="Q100">
-        <v>256.803745992</v>
+        <v>269.830345032</v>
       </c>
       <c r="R100">
         <v>48.99999999999996</v>
       </c>
       <c r="S100">
-        <v>4.313683870970036</v>
+        <v>4.522757581086424</v>
       </c>
       <c r="T100">
         <v>44.91118960758078</v>
       </c>
       <c r="U100">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V100">
         <v>0.22</v>
       </c>
       <c r="W100">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y100">
-        <v>5.014070707114803</v>
+        <v>6.915140169527998</v>
       </c>
       <c r="Z100">
         <v>0</v>
@@ -9473,13 +9473,13 @@
         <v>0.99</v>
       </c>
       <c r="B101">
-        <v>0.1083456126535636</v>
+        <v>0.1064023945009129</v>
       </c>
       <c r="C101">
-        <v>585.9908359478463</v>
+        <v>578.6130750262873</v>
       </c>
       <c r="D101">
-        <v>2313.188835947846</v>
+        <v>2305.811075026287</v>
       </c>
       <c r="E101">
         <v>929.9979999999996</v>
@@ -9506,45 +9506,45 @@
         <v>304.6</v>
       </c>
       <c r="M101">
-        <v>61.36893179999999</v>
+        <v>44.49774779999999</v>
       </c>
       <c r="N101">
-        <v>243.2310682</v>
+        <v>260.1022522</v>
       </c>
       <c r="O101">
-        <v>53.51083500400001</v>
+        <v>57.222495484</v>
       </c>
       <c r="P101">
-        <v>189.720233196</v>
+        <v>202.879756716</v>
       </c>
       <c r="Q101">
-        <v>256.320233196</v>
+        <v>269.479756716</v>
       </c>
       <c r="R101">
         <v>98.99999999999991</v>
       </c>
       <c r="S101">
-        <v>8.587459265356356</v>
+        <v>9.010897450091282</v>
       </c>
       <c r="T101">
         <v>89.57045515310986</v>
       </c>
       <c r="U101">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V101">
         <v>0.22</v>
       </c>
       <c r="W101">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y101">
-        <v>4.963423528255059</v>
+        <v>6.845290268825697</v>
       </c>
       <c r="Z101">
         <v>0</v>
